--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4698AB0-B6CD-4B4C-A0FC-5A68FDCDAE10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="-15" windowWidth="17970" windowHeight="12450" tabRatio="822" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -29,13 +30,21 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="種別一覧">データ!$A$2:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>PJ名</t>
   </si>
@@ -101,16 +110,6 @@
   </si>
   <si>
     <t>変更</t>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -529,31 +528,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.0版</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>新規作成</t>
-    <rPh sb="0" eb="4">
-      <t>シンキサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>TIS</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -605,15 +579,6 @@
   <si>
     <t>業種コード</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>client_name</t>
-  </si>
-  <si>
-    <t>industry_code</t>
   </si>
   <si>
     <t>顧客</t>
@@ -894,52 +859,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>バリデーションエラーが発生した場合は業務例外を送出する。</t>
-    <rPh sb="11" eb="13">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>HTTPステータスコード</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>障害コード</t>
-    <rPh sb="0" eb="2">
-      <t>ショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>メッセージID</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>400(Bad Request)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>FB1999901</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>（ドメイン別）</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>(2) 顧客取得</t>
     <rPh sb="4" eb="6">
       <t>コキャク</t>
@@ -950,33 +869,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>404(Not Found)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>なし。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>データが存在しない場合は業務例外を送出する。</t>
-    <rPh sb="4" eb="6">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>(4) 応答電文作成</t>
     <rPh sb="4" eb="6">
       <t>オウトウ</t>
@@ -1026,14 +918,6 @@
     <t>/client/:client_id</t>
   </si>
   <si>
-    <t>FB1999903</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>errors.nothing</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1066,10 +950,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>client_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1083,17 +963,151 @@
   <si>
     <t>パスパラメータ</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>clientName</t>
+  </si>
+  <si>
+    <t>industryCode</t>
+  </si>
+  <si>
+    <t>データが存在しない場合はNoDataException例外を送出する。</t>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1.0版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2.3.1. 項目定義
+2.4. 処理詳細
+2.5.2. 編集仕様</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・入出力項目の物理名をスネークケースからキャメルケースに変更
+・エラー応答電文作成は共通コンポーネント処理であるため、エラーステータス、エラーメッセージ設定の記載は削除
+・アプリケーション処理として発行が必要な例外は明記</t>
+    <rPh sb="1" eb="4">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>デンブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>メイキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1497,7 +1511,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2052,9 +2066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2064,9 +2075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2202,6 +2210,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2211,33 +2243,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2263,6 +2268,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2466,51 +2477,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="パーセント 2" xfId="7"/>
+    <cellStyle name="パーセント 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="4"/>
-    <cellStyle name="標準 2" xfId="6"/>
-    <cellStyle name="標準 2 13" xfId="8"/>
-    <cellStyle name="標準 2 3" xfId="5"/>
-    <cellStyle name="標準_~6362950" xfId="9"/>
-    <cellStyle name="標準_画面標準" xfId="2"/>
-    <cellStyle name="標準_画面標準定義" xfId="3"/>
+    <cellStyle name="標準 10" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 13" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_~6362950" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2542,7 +2532,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2557,7 +2553,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2641,7 +2643,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2741,7 +2749,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2922,7 +2936,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 90"/>
+        <xdr:cNvPr id="2" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2984,7 +3004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 91"/>
+        <xdr:cNvPr id="3" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3063,7 +3089,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 92"/>
+        <xdr:cNvPr id="4" name="Text Box 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3121,7 +3153,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 93"/>
+        <xdr:cNvPr id="5" name="AutoShape 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3193,7 +3231,13 @@
     <xdr:ext cx="223651" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 94"/>
+        <xdr:cNvPr id="6" name="Text Box 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3253,7 +3297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 98"/>
+        <xdr:cNvPr id="7" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3335,7 +3385,13 @@
     <xdr:ext cx="223651" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 99"/>
+        <xdr:cNvPr id="8" name="Text Box 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3395,7 +3451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 100"/>
+        <xdr:cNvPr id="9" name="AutoShape 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3452,7 +3514,13 @@
     <xdr:ext cx="428835" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 101"/>
+        <xdr:cNvPr id="10" name="Text Box 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3512,7 +3580,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 102"/>
+        <xdr:cNvPr id="11" name="AutoShape 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3560,7 +3634,13 @@
     <xdr:ext cx="326243" cy="151836"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Text Box 103"/>
+        <xdr:cNvPr id="12" name="Text Box 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3615,7 +3695,13 @@
     <xdr:ext cx="326243" cy="151836"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Text Box 104"/>
+        <xdr:cNvPr id="13" name="Text Box 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3675,7 +3761,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 140"/>
+        <xdr:cNvPr id="14" name="Group 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3690,7 +3782,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 105"/>
+          <xdr:cNvPr id="15" name="Rectangle 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3752,7 +3850,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Freeform 106"/>
+          <xdr:cNvPr id="16" name="Freeform 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
@@ -3816,7 +3920,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Text Box 107"/>
+        <xdr:cNvPr id="17" name="Text Box 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3876,7 +3986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line 108"/>
+        <xdr:cNvPr id="18" name="Line 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3922,7 +4038,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 109"/>
+        <xdr:cNvPr id="19" name="Text Box 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3982,7 +4104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 110"/>
+        <xdr:cNvPr id="20" name="Line 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4029,7 +4157,13 @@
     <xdr:ext cx="326243" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 111"/>
+        <xdr:cNvPr id="21" name="Text Box 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4089,7 +4223,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Group 112"/>
+        <xdr:cNvPr id="22" name="Group 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4104,7 +4244,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Line 113"/>
+          <xdr:cNvPr id="23" name="Line 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4130,7 +4276,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Line 114"/>
+          <xdr:cNvPr id="24" name="Line 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4156,7 +4308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Line 115"/>
+          <xdr:cNvPr id="25" name="Line 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4182,7 +4340,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Line 116"/>
+          <xdr:cNvPr id="26" name="Line 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4219,7 +4383,13 @@
     <xdr:ext cx="428835" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Text Box 117"/>
+        <xdr:cNvPr id="27" name="Text Box 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4279,7 +4449,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="Group 118"/>
+        <xdr:cNvPr id="28" name="Group 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4294,7 +4470,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Line 119"/>
+          <xdr:cNvPr id="29" name="Line 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4320,7 +4502,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Line 120"/>
+          <xdr:cNvPr id="30" name="Line 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4346,7 +4534,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Line 121"/>
+          <xdr:cNvPr id="31" name="Line 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4372,7 +4566,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Line 122"/>
+          <xdr:cNvPr id="32" name="Line 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4409,7 +4609,13 @@
     <xdr:ext cx="736612" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Text Box 123"/>
+        <xdr:cNvPr id="33" name="Text Box 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4469,7 +4675,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Oval 124"/>
+        <xdr:cNvPr id="34" name="Oval 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4517,7 +4729,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Text Box 125"/>
+        <xdr:cNvPr id="35" name="Text Box 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4572,7 +4790,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Text Box 126"/>
+        <xdr:cNvPr id="36" name="Text Box 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4632,7 +4856,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="Group 127"/>
+        <xdr:cNvPr id="37" name="Group 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4647,7 +4877,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Oval 128"/>
+          <xdr:cNvPr id="38" name="Oval 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4675,7 +4911,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="Oval 129"/>
+          <xdr:cNvPr id="39" name="Oval 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4719,7 +4961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="AutoShape 133"/>
+        <xdr:cNvPr id="40" name="AutoShape 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4772,7 +5020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 134"/>
+        <xdr:cNvPr id="41" name="Text Box 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4845,7 +5099,13 @@
     <xdr:ext cx="806375" cy="285206"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Text Box 135"/>
+        <xdr:cNvPr id="42" name="Text Box 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4970,7 +5230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="AutoShape 136"/>
+        <xdr:cNvPr id="43" name="AutoShape 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5026,7 +5292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Text Box 137"/>
+        <xdr:cNvPr id="44" name="Text Box 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5084,7 +5356,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="AutoShape 113"/>
+        <xdr:cNvPr id="61" name="AutoShape 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -5126,7 +5404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rectangle 330"/>
+        <xdr:cNvPr id="66" name="Rectangle 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5203,7 +5487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="AutoShape 365"/>
+        <xdr:cNvPr id="67" name="AutoShape 365">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5254,7 +5544,13 @@
     <xdr:ext cx="1276629" cy="318549"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Text Box 367"/>
+        <xdr:cNvPr id="72" name="Text Box 367">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5345,7 +5641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="AutoShape 91"/>
+        <xdr:cNvPr id="73" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5409,7 +5711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Line 110"/>
+        <xdr:cNvPr id="75" name="Line 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5461,7 +5769,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Line 110"/>
+        <xdr:cNvPr id="54" name="Line 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5513,7 +5827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Oval 124"/>
+        <xdr:cNvPr id="55" name="Oval 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5901,63 +6221,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="37"/>
       <c r="J23" s="8" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -5966,19 +6284,19 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="165">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43718</v>
+        <v>44825</v>
       </c>
       <c r="J25" s="165"/>
       <c r="K25" s="165"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5987,7 +6305,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -5996,7 +6314,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="9"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -6005,7 +6323,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="37"/>
@@ -6013,7 +6331,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="7"/>
       <c r="G30" s="10"/>
       <c r="H30" s="7"/>
@@ -6022,7 +6340,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="7"/>
       <c r="G31" s="10"/>
       <c r="H31" s="7"/>
@@ -6031,7 +6349,7 @@
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="7"/>
       <c r="G32" s="10"/>
       <c r="H32" s="7"/>
@@ -6040,7 +6358,7 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="37"/>
@@ -6052,7 +6370,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="37"/>
@@ -6067,515 +6385,515 @@
       <c r="R34" s="99"/>
       <c r="S34" s="99"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="100"/>
       <c r="P36" s="99"/>
       <c r="Q36" s="100"/>
       <c r="R36" s="99"/>
       <c r="S36" s="97"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="101"/>
       <c r="P37" s="102"/>
       <c r="Q37" s="101"/>
       <c r="R37" s="102"/>
       <c r="S37" s="101"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="102"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="102"/>
       <c r="R38" s="102"/>
       <c r="S38" s="102"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="102"/>
       <c r="P39" s="102"/>
       <c r="Q39" s="102"/>
       <c r="R39" s="102"/>
       <c r="S39" s="102"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6590,22 +6908,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:P8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6931,7 @@
       <c r="C1" s="183"/>
       <c r="D1" s="184"/>
       <c r="E1" s="176" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F1" s="177"/>
       <c r="G1" s="177"/>
@@ -6631,7 +6949,7 @@
       <c r="Q1" s="186"/>
       <c r="R1" s="187"/>
       <c r="S1" s="194" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T1" s="195"/>
       <c r="U1" s="195"/>
@@ -6663,7 +6981,7 @@
       <c r="AM1" s="13"/>
       <c r="AN1" s="14"/>
     </row>
-    <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
@@ -6671,7 +6989,7 @@
       <c r="C2" s="183"/>
       <c r="D2" s="184"/>
       <c r="E2" s="176" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" s="177"/>
       <c r="G2" s="177"/>
@@ -6700,14 +7018,14 @@
       <c r="AB2" s="184"/>
       <c r="AC2" s="179" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="180"/>
       <c r="AE2" s="180"/>
       <c r="AF2" s="181"/>
-      <c r="AG2" s="169" t="str">
+      <c r="AG2" s="169">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="170"/>
       <c r="AI2" s="171"/>
@@ -6717,7 +7035,7 @@
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
@@ -6725,7 +7043,7 @@
       <c r="C3" s="183"/>
       <c r="D3" s="184"/>
       <c r="E3" s="176" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" s="177"/>
       <c r="G3" s="177"/>
@@ -6763,9 +7081,9 @@
       <c r="AM3" s="13"/>
       <c r="AN3" s="13"/>
     </row>
-    <row r="5" spans="1:40" s="16" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
@@ -6777,7 +7095,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="17"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
@@ -6789,9 +7107,9 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="172" t="s">
         <v>4</v>
@@ -6808,7 +7126,7 @@
       <c r="H7" s="174"/>
       <c r="I7" s="173"/>
       <c r="J7" s="175" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="174"/>
       <c r="L7" s="174"/>
@@ -6840,12 +7158,12 @@
       <c r="AH7" s="174"/>
       <c r="AI7" s="173"/>
     </row>
-    <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="117">
         <v>1</v>
       </c>
       <c r="B8" s="215" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C8" s="216"/>
       <c r="D8" s="217">
@@ -6854,57 +7172,73 @@
       <c r="E8" s="218"/>
       <c r="F8" s="219"/>
       <c r="G8" s="220" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="H8" s="221"/>
       <c r="I8" s="216"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="227"/>
-      <c r="S8" s="227"/>
-      <c r="T8" s="227"/>
-      <c r="U8" s="227"/>
-      <c r="V8" s="227"/>
-      <c r="W8" s="227"/>
-      <c r="X8" s="227"/>
-      <c r="Y8" s="227"/>
-      <c r="Z8" s="227"/>
-      <c r="AA8" s="227"/>
-      <c r="AB8" s="227"/>
-      <c r="AC8" s="227"/>
-      <c r="AD8" s="227"/>
-      <c r="AE8" s="228"/>
-      <c r="AF8" s="225" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG8" s="223"/>
-      <c r="AH8" s="223"/>
-      <c r="AI8" s="224"/>
-    </row>
-    <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="203"/>
+      <c r="J8" s="224" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="222"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="222"/>
+      <c r="N8" s="222"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="365" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="225"/>
+      <c r="S8" s="225"/>
+      <c r="T8" s="225"/>
+      <c r="U8" s="225"/>
+      <c r="V8" s="225"/>
+      <c r="W8" s="225"/>
+      <c r="X8" s="225"/>
+      <c r="Y8" s="225"/>
+      <c r="Z8" s="225"/>
+      <c r="AA8" s="225"/>
+      <c r="AB8" s="225"/>
+      <c r="AC8" s="225"/>
+      <c r="AD8" s="225"/>
+      <c r="AE8" s="226"/>
+      <c r="AF8" s="224" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG8" s="222"/>
+      <c r="AH8" s="222"/>
+      <c r="AI8" s="223"/>
+    </row>
+    <row r="9" spans="1:40" s="21" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="118">
+        <v>2</v>
+      </c>
+      <c r="B9" s="363" t="s">
+        <v>140</v>
+      </c>
       <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
+      <c r="D9" s="205">
+        <v>44825</v>
+      </c>
       <c r="E9" s="206"/>
       <c r="F9" s="207"/>
-      <c r="G9" s="205"/>
+      <c r="G9" s="364" t="s">
+        <v>141</v>
+      </c>
       <c r="H9" s="208"/>
       <c r="I9" s="204"/>
-      <c r="J9" s="209"/>
+      <c r="J9" s="273" t="s">
+        <v>145</v>
+      </c>
       <c r="K9" s="210"/>
       <c r="L9" s="210"/>
       <c r="M9" s="210"/>
       <c r="N9" s="210"/>
       <c r="O9" s="210"/>
       <c r="P9" s="211"/>
-      <c r="Q9" s="212"/>
+      <c r="Q9" s="273" t="s">
+        <v>146</v>
+      </c>
       <c r="R9" s="213"/>
       <c r="S9" s="213"/>
       <c r="T9" s="213"/>
@@ -6919,12 +7253,14 @@
       <c r="AC9" s="213"/>
       <c r="AD9" s="213"/>
       <c r="AE9" s="214"/>
-      <c r="AF9" s="209"/>
+      <c r="AF9" s="366" t="s">
+        <v>69</v>
+      </c>
       <c r="AG9" s="210"/>
       <c r="AH9" s="210"/>
       <c r="AI9" s="211"/>
     </row>
-    <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="118"/>
       <c r="B10" s="203"/>
       <c r="C10" s="204"/>
@@ -6961,7 +7297,7 @@
       <c r="AH10" s="210"/>
       <c r="AI10" s="211"/>
     </row>
-    <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="118"/>
       <c r="B11" s="203"/>
       <c r="C11" s="204"/>
@@ -6998,7 +7334,7 @@
       <c r="AH11" s="210"/>
       <c r="AI11" s="211"/>
     </row>
-    <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="118"/>
       <c r="B12" s="203"/>
       <c r="C12" s="204"/>
@@ -7035,7 +7371,7 @@
       <c r="AH12" s="210"/>
       <c r="AI12" s="211"/>
     </row>
-    <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="118"/>
       <c r="B13" s="203"/>
       <c r="C13" s="204"/>
@@ -7072,7 +7408,7 @@
       <c r="AH13" s="210"/>
       <c r="AI13" s="211"/>
     </row>
-    <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="118"/>
       <c r="B14" s="203"/>
       <c r="C14" s="204"/>
@@ -7109,7 +7445,7 @@
       <c r="AH14" s="210"/>
       <c r="AI14" s="211"/>
     </row>
-    <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="118"/>
       <c r="B15" s="203"/>
       <c r="C15" s="204"/>
@@ -7146,7 +7482,7 @@
       <c r="AH15" s="210"/>
       <c r="AI15" s="211"/>
     </row>
-    <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="118"/>
       <c r="B16" s="203"/>
       <c r="C16" s="204"/>
@@ -7183,7 +7519,7 @@
       <c r="AH16" s="210"/>
       <c r="AI16" s="211"/>
     </row>
-    <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="118"/>
       <c r="B17" s="203"/>
       <c r="C17" s="204"/>
@@ -7220,7 +7556,7 @@
       <c r="AH17" s="210"/>
       <c r="AI17" s="211"/>
     </row>
-    <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="118"/>
       <c r="B18" s="203"/>
       <c r="C18" s="204"/>
@@ -7257,7 +7593,7 @@
       <c r="AH18" s="210"/>
       <c r="AI18" s="211"/>
     </row>
-    <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="118"/>
       <c r="B19" s="203"/>
       <c r="C19" s="204"/>
@@ -7294,7 +7630,7 @@
       <c r="AH19" s="210"/>
       <c r="AI19" s="211"/>
     </row>
-    <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="118"/>
       <c r="B20" s="203"/>
       <c r="C20" s="204"/>
@@ -7331,7 +7667,7 @@
       <c r="AH20" s="210"/>
       <c r="AI20" s="211"/>
     </row>
-    <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="118"/>
       <c r="B21" s="203"/>
       <c r="C21" s="204"/>
@@ -7368,7 +7704,7 @@
       <c r="AH21" s="210"/>
       <c r="AI21" s="211"/>
     </row>
-    <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="118"/>
       <c r="B22" s="203"/>
       <c r="C22" s="204"/>
@@ -7405,7 +7741,7 @@
       <c r="AH22" s="210"/>
       <c r="AI22" s="211"/>
     </row>
-    <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="118"/>
       <c r="B23" s="203"/>
       <c r="C23" s="204"/>
@@ -7442,7 +7778,7 @@
       <c r="AH23" s="210"/>
       <c r="AI23" s="211"/>
     </row>
-    <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="118"/>
       <c r="B24" s="203"/>
       <c r="C24" s="204"/>
@@ -7479,7 +7815,7 @@
       <c r="AH24" s="210"/>
       <c r="AI24" s="211"/>
     </row>
-    <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="118"/>
       <c r="B25" s="203"/>
       <c r="C25" s="204"/>
@@ -7516,7 +7852,7 @@
       <c r="AH25" s="210"/>
       <c r="AI25" s="211"/>
     </row>
-    <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="118"/>
       <c r="B26" s="203"/>
       <c r="C26" s="204"/>
@@ -7553,7 +7889,7 @@
       <c r="AH26" s="210"/>
       <c r="AI26" s="211"/>
     </row>
-    <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="118"/>
       <c r="B27" s="203"/>
       <c r="C27" s="204"/>
@@ -7590,7 +7926,7 @@
       <c r="AH27" s="210"/>
       <c r="AI27" s="211"/>
     </row>
-    <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="118"/>
       <c r="B28" s="203"/>
       <c r="C28" s="204"/>
@@ -7627,7 +7963,7 @@
       <c r="AH28" s="210"/>
       <c r="AI28" s="211"/>
     </row>
-    <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="118"/>
       <c r="B29" s="203"/>
       <c r="C29" s="204"/>
@@ -7664,7 +8000,7 @@
       <c r="AH29" s="210"/>
       <c r="AI29" s="211"/>
     </row>
-    <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="118"/>
       <c r="B30" s="203"/>
       <c r="C30" s="204"/>
@@ -7701,7 +8037,7 @@
       <c r="AH30" s="210"/>
       <c r="AI30" s="211"/>
     </row>
-    <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="118"/>
       <c r="B31" s="203"/>
       <c r="C31" s="204"/>
@@ -7738,7 +8074,7 @@
       <c r="AH31" s="210"/>
       <c r="AI31" s="211"/>
     </row>
-    <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="118"/>
       <c r="B32" s="203"/>
       <c r="C32" s="204"/>
@@ -7749,7 +8085,7 @@
       <c r="H32" s="208"/>
       <c r="I32" s="204"/>
       <c r="J32" s="209"/>
-      <c r="K32" s="229"/>
+      <c r="K32" s="227"/>
       <c r="L32" s="210"/>
       <c r="M32" s="210"/>
       <c r="N32" s="210"/>
@@ -7775,7 +8111,7 @@
       <c r="AH32" s="210"/>
       <c r="AI32" s="211"/>
     </row>
-    <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="118"/>
       <c r="B33" s="203"/>
       <c r="C33" s="204"/>
@@ -7812,7 +8148,7 @@
       <c r="AH33" s="210"/>
       <c r="AI33" s="211"/>
     </row>
-    <row r="34" spans="1:35" ht="14.25">
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
@@ -8006,7 +8342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8016,7 +8352,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="75" customWidth="1"/>
@@ -8151,13 +8487,13 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="230" t="s">
+    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="232"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="230"/>
       <c r="E1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -8171,27 +8507,27 @@
       <c r="L1" s="177"/>
       <c r="M1" s="177"/>
       <c r="N1" s="178"/>
-      <c r="O1" s="233" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="245" t="str">
+      <c r="O1" s="231" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="247"/>
-      <c r="AA1" s="230" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="232"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="228" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="230"/>
       <c r="AC1" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
@@ -8199,20 +8535,20 @@
       <c r="AD1" s="167"/>
       <c r="AE1" s="167"/>
       <c r="AF1" s="168"/>
-      <c r="AG1" s="242">
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="244"/>
-    </row>
-    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="230" t="s">
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
+    </row>
+    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -8226,43 +8562,43 @@
       <c r="L2" s="177"/>
       <c r="M2" s="177"/>
       <c r="N2" s="178"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
-      <c r="AA2" s="230" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="232"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="228" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="230"/>
       <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="167"/>
       <c r="AE2" s="167"/>
       <c r="AF2" s="168"/>
-      <c r="AG2" s="242" t="str">
+      <c r="AG2" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="243"/>
-      <c r="AI2" s="244"/>
-    </row>
-    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="230" t="s">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
+    </row>
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="230"/>
       <c r="E3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
@@ -8276,20 +8612,20 @@
       <c r="L3" s="177"/>
       <c r="M3" s="177"/>
       <c r="N3" s="178"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="232"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="230"/>
       <c r="AC3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -8297,14 +8633,14 @@
       <c r="AD3" s="167"/>
       <c r="AE3" s="167"/>
       <c r="AF3" s="168"/>
-      <c r="AG3" s="242" t="str">
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="244"/>
-    </row>
-    <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
+    </row>
+    <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -8341,7 +8677,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="44"/>
     </row>
-    <row r="5" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -8359,7 +8695,7 @@
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
@@ -8380,7 +8716,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="44"/>
     </row>
-    <row r="6" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -8417,10 +8753,10 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="48"/>
       <c r="B7" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="49"/>
@@ -8456,11 +8792,11 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -8495,11 +8831,11 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -8534,7 +8870,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="48"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -8571,10 +8907,10 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="48"/>
@@ -8610,11 +8946,11 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="49"/>
@@ -8649,11 +8985,11 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
@@ -8683,11 +9019,11 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="B14" s="53"/>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -8722,11 +9058,11 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="B15" s="1"/>
       <c r="C15" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
@@ -8761,11 +9097,11 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="44"/>
@@ -8796,7 +9132,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="44"/>
       <c r="C17" s="1"/>
@@ -8833,7 +9169,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="44"/>
       <c r="C18" s="48"/>
@@ -8870,7 +9206,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="44"/>
       <c r="C19" s="48"/>
@@ -8907,7 +9243,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="48"/>
       <c r="B20" s="44"/>
       <c r="C20" s="48"/>
@@ -8944,7 +9280,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="48"/>
       <c r="B21" s="44"/>
       <c r="C21" s="48"/>
@@ -8981,7 +9317,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48"/>
       <c r="B22" s="44"/>
       <c r="C22" s="48"/>
@@ -9018,7 +9354,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
       <c r="B23" s="59"/>
       <c r="C23" s="49"/>
@@ -9055,7 +9391,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48"/>
       <c r="B24" s="44"/>
       <c r="C24" s="48"/>
@@ -9092,7 +9428,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="44"/>
       <c r="C25" s="48"/>
@@ -9129,7 +9465,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="44"/>
       <c r="C26" s="48"/>
@@ -9166,7 +9502,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="44"/>
       <c r="C27" s="48"/>
@@ -9203,7 +9539,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="48"/>
       <c r="B28" s="44"/>
       <c r="C28" s="48"/>
@@ -9240,7 +9576,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="44"/>
       <c r="C29" s="48"/>
@@ -9277,7 +9613,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -9314,7 +9650,7 @@
       <c r="AH30" s="63"/>
       <c r="AI30" s="64"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
       <c r="B31" s="44"/>
       <c r="C31" s="45"/>
@@ -9351,7 +9687,7 @@
       <c r="AH31" s="63"/>
       <c r="AI31" s="64"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
       <c r="B32" s="67"/>
       <c r="C32" s="48"/>
@@ -9388,7 +9724,7 @@
       <c r="AH32" s="63"/>
       <c r="AI32" s="64"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
       <c r="B33" s="67"/>
       <c r="C33" s="48"/>
@@ -9425,7 +9761,7 @@
       <c r="AH33" s="63"/>
       <c r="AI33" s="64"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60"/>
       <c r="B34" s="67"/>
       <c r="C34" s="48"/>
@@ -9462,7 +9798,7 @@
       <c r="AH34" s="63"/>
       <c r="AI34" s="64"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
       <c r="B35" s="67"/>
       <c r="C35" s="48"/>
@@ -9499,7 +9835,7 @@
       <c r="AH35" s="63"/>
       <c r="AI35" s="64"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -9536,7 +9872,7 @@
       <c r="AH36" s="72"/>
       <c r="AI36" s="60"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -9568,7 +9904,7 @@
       <c r="AH37" s="80"/>
       <c r="AI37" s="76"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="76"/>
       <c r="T38" s="76"/>
       <c r="U38" s="77"/>
@@ -9587,7 +9923,7 @@
       <c r="AH38" s="83"/>
       <c r="AI38" s="76"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="84"/>
       <c r="S39" s="76"/>
       <c r="T39" s="77"/>
@@ -9607,7 +9943,7 @@
       <c r="AH39" s="83"/>
       <c r="AI39" s="76"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
@@ -9626,7 +9962,7 @@
       <c r="AH40" s="83"/>
       <c r="AI40" s="76"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
@@ -9640,37 +9976,37 @@
       <c r="AH41" s="83"/>
       <c r="AI41" s="76"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="76"/>
       <c r="AF42" s="81"/>
       <c r="AG42" s="82"/>
       <c r="AH42" s="83"/>
       <c r="AI42" s="76"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="76"/>
       <c r="AF43" s="81"/>
       <c r="AG43" s="81"/>
       <c r="AH43" s="83"/>
       <c r="AI43" s="76"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="73"/>
       <c r="AF44" s="85"/>
       <c r="AG44" s="85"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="73"/>
       <c r="AG45" s="85"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="85"/>
       <c r="AG46" s="85"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="85"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="73"/>
       <c r="T48" s="73"/>
       <c r="V48" s="73"/>
@@ -9683,7 +10019,7 @@
       <c r="AC48" s="73"/>
       <c r="AD48" s="73"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="73"/>
       <c r="S49" s="73"/>
       <c r="T49" s="73"/>
@@ -9698,10 +10034,10 @@
       <c r="AD49" s="73"/>
       <c r="AG49" s="85"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="73"/>
     </row>
-    <row r="51" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -9734,7 +10070,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="84"/>
     </row>
-    <row r="52" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -9796,7 +10132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9806,14 +10142,14 @@
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="32" width="4.83203125" style="1"/>
     <col min="33" max="33" width="4.83203125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
@@ -9834,24 +10170,24 @@
       <c r="M1" s="177"/>
       <c r="N1" s="178"/>
       <c r="O1" s="185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="186"/>
       <c r="Q1" s="186"/>
       <c r="R1" s="187"/>
-      <c r="S1" s="245" t="str">
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="247"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
       <c r="AA1" s="182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB1" s="184"/>
       <c r="AC1" s="166" t="str">
@@ -9861,14 +10197,14 @@
       <c r="AD1" s="167"/>
       <c r="AE1" s="167"/>
       <c r="AF1" s="168"/>
-      <c r="AG1" s="255">
+      <c r="AG1" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
-    </row>
-    <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
+    </row>
+    <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
@@ -9892,33 +10228,33 @@
       <c r="P2" s="189"/>
       <c r="Q2" s="189"/>
       <c r="R2" s="190"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
       <c r="AA2" s="182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB2" s="184"/>
       <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="167"/>
       <c r="AE2" s="167"/>
       <c r="AF2" s="168"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AG2" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
-    </row>
-    <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
+    </row>
+    <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
@@ -9942,14 +10278,14 @@
       <c r="P3" s="192"/>
       <c r="Q3" s="192"/>
       <c r="R3" s="193"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="253"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
       <c r="AA3" s="182"/>
       <c r="AB3" s="184"/>
       <c r="AC3" s="166" t="str">
@@ -9959,14 +10295,14 @@
       <c r="AD3" s="167"/>
       <c r="AE3" s="167"/>
       <c r="AF3" s="168"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AG3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
-    </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1">
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10003,10 +10339,10 @@
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -10042,11 +10378,11 @@
       <c r="AH5" s="30"/>
       <c r="AI5" s="30"/>
     </row>
-    <row r="6" spans="1:38" ht="12" customHeight="1">
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -10080,7 +10416,7 @@
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
     </row>
-    <row r="7" spans="1:38" ht="12" customHeight="1">
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -10116,98 +10452,98 @@
       <c r="AG7" s="30"/>
       <c r="AH7" s="30"/>
     </row>
-    <row r="8" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="260" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="258" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="259"/>
-      <c r="S8" s="259"/>
-      <c r="T8" s="259"/>
-      <c r="U8" s="259"/>
-      <c r="V8" s="259"/>
-      <c r="W8" s="259"/>
-      <c r="X8" s="259"/>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="259"/>
-      <c r="AA8" s="259"/>
-      <c r="AB8" s="259"/>
-      <c r="AC8" s="259"/>
-      <c r="AD8" s="259"/>
-      <c r="AE8" s="259"/>
-      <c r="AF8" s="259"/>
-      <c r="AG8" s="259"/>
-      <c r="AH8" s="259"/>
-    </row>
-    <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="D8" s="258" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="256" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="257"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="257"/>
+      <c r="V8" s="257"/>
+      <c r="W8" s="257"/>
+      <c r="X8" s="257"/>
+      <c r="Y8" s="257"/>
+      <c r="Z8" s="257"/>
+      <c r="AA8" s="257"/>
+      <c r="AB8" s="257"/>
+      <c r="AC8" s="257"/>
+      <c r="AD8" s="257"/>
+      <c r="AE8" s="257"/>
+      <c r="AF8" s="257"/>
+      <c r="AG8" s="257"/>
+      <c r="AH8" s="257"/>
+    </row>
+    <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="260" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="254" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="254"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="254"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="254"/>
-      <c r="S9" s="254"/>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="254"/>
-      <c r="W9" s="254"/>
-      <c r="X9" s="254"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="254"/>
-      <c r="AA9" s="254"/>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="254"/>
-      <c r="AD9" s="254"/>
-      <c r="AE9" s="254"/>
-      <c r="AF9" s="254"/>
-      <c r="AG9" s="254"/>
-      <c r="AH9" s="254"/>
-    </row>
-    <row r="10" spans="1:38" ht="12" customHeight="1">
+      <c r="D9" s="258" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="252" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="252"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="252"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="252"/>
+      <c r="R9" s="252"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="252"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="252"/>
+      <c r="X9" s="252"/>
+      <c r="Y9" s="252"/>
+      <c r="Z9" s="252"/>
+      <c r="AA9" s="252"/>
+      <c r="AB9" s="252"/>
+      <c r="AC9" s="252"/>
+      <c r="AD9" s="252"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="252"/>
+      <c r="AG9" s="252"/>
+      <c r="AH9" s="252"/>
+    </row>
+    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="263" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="265"/>
+      <c r="D10" s="261" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
       <c r="H10" s="103" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I10" s="104"/>
       <c r="J10" s="104"/>
@@ -10236,178 +10572,178 @@
       <c r="AG10" s="104"/>
       <c r="AH10" s="105"/>
     </row>
-    <row r="11" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="260" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="262"/>
-      <c r="H11" s="258" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="259"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="259"/>
-      <c r="S11" s="259"/>
-      <c r="T11" s="259"/>
-      <c r="U11" s="259"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="259"/>
-      <c r="Y11" s="259"/>
-      <c r="Z11" s="259"/>
-      <c r="AA11" s="259"/>
-      <c r="AB11" s="259"/>
-      <c r="AC11" s="259"/>
-      <c r="AD11" s="259"/>
-      <c r="AE11" s="259"/>
-      <c r="AF11" s="259"/>
-      <c r="AG11" s="259"/>
-      <c r="AH11" s="259"/>
-    </row>
-    <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="D11" s="258" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="256" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="257"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="257"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="257"/>
+      <c r="X11" s="257"/>
+      <c r="Y11" s="257"/>
+      <c r="Z11" s="257"/>
+      <c r="AA11" s="257"/>
+      <c r="AB11" s="257"/>
+      <c r="AC11" s="257"/>
+      <c r="AD11" s="257"/>
+      <c r="AE11" s="257"/>
+      <c r="AF11" s="257"/>
+      <c r="AG11" s="257"/>
+      <c r="AH11" s="257"/>
+    </row>
+    <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="260" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="254" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="254"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="254"/>
-      <c r="Q12" s="254"/>
-      <c r="R12" s="254"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="254"/>
-      <c r="W12" s="254"/>
-      <c r="X12" s="254"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="254"/>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="254"/>
-      <c r="AD12" s="254"/>
-      <c r="AE12" s="254"/>
-      <c r="AF12" s="254"/>
-      <c r="AG12" s="254"/>
-      <c r="AH12" s="254"/>
-    </row>
-    <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="D12" s="258" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="252" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="252"/>
+      <c r="O12" s="252"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="252"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="252"/>
+      <c r="U12" s="252"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="252"/>
+      <c r="X12" s="252"/>
+      <c r="Y12" s="252"/>
+      <c r="Z12" s="252"/>
+      <c r="AA12" s="252"/>
+      <c r="AB12" s="252"/>
+      <c r="AC12" s="252"/>
+      <c r="AD12" s="252"/>
+      <c r="AE12" s="252"/>
+      <c r="AF12" s="252"/>
+      <c r="AG12" s="252"/>
+      <c r="AH12" s="252"/>
+    </row>
+    <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="260" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="254" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="254"/>
-      <c r="J13" s="254"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="254"/>
-      <c r="O13" s="254"/>
-      <c r="P13" s="254"/>
-      <c r="Q13" s="254"/>
-      <c r="R13" s="254"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="254"/>
-      <c r="W13" s="254"/>
-      <c r="X13" s="254"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="254"/>
-      <c r="AD13" s="254"/>
-      <c r="AE13" s="254"/>
-      <c r="AF13" s="254"/>
-      <c r="AG13" s="254"/>
-      <c r="AH13" s="254"/>
-    </row>
-    <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="D13" s="258" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="252" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="252"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="252"/>
+      <c r="N13" s="252"/>
+      <c r="O13" s="252"/>
+      <c r="P13" s="252"/>
+      <c r="Q13" s="252"/>
+      <c r="R13" s="252"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="252"/>
+      <c r="X13" s="252"/>
+      <c r="Y13" s="252"/>
+      <c r="Z13" s="252"/>
+      <c r="AA13" s="252"/>
+      <c r="AB13" s="252"/>
+      <c r="AC13" s="252"/>
+      <c r="AD13" s="252"/>
+      <c r="AE13" s="252"/>
+      <c r="AF13" s="252"/>
+      <c r="AG13" s="252"/>
+      <c r="AH13" s="252"/>
+    </row>
+    <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="260" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="261"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="254"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="254"/>
-      <c r="P14" s="254"/>
-      <c r="Q14" s="254"/>
-      <c r="R14" s="254"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="254"/>
-      <c r="W14" s="254"/>
-      <c r="X14" s="254"/>
-      <c r="Y14" s="254"/>
-      <c r="Z14" s="254"/>
-      <c r="AA14" s="254"/>
-      <c r="AB14" s="254"/>
-      <c r="AC14" s="254"/>
-      <c r="AD14" s="254"/>
-      <c r="AE14" s="254"/>
-      <c r="AF14" s="254"/>
-      <c r="AG14" s="254"/>
-      <c r="AH14" s="254"/>
-    </row>
-    <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="D14" s="258" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="252" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="252"/>
+      <c r="O14" s="252"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="252"/>
+      <c r="R14" s="252"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="252"/>
+      <c r="X14" s="252"/>
+      <c r="Y14" s="252"/>
+      <c r="Z14" s="252"/>
+      <c r="AA14" s="252"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="252"/>
+      <c r="AD14" s="252"/>
+      <c r="AE14" s="252"/>
+      <c r="AF14" s="252"/>
+      <c r="AG14" s="252"/>
+      <c r="AH14" s="252"/>
+    </row>
+    <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="260" t="s">
+      <c r="D15" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="261"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="262"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="260"/>
       <c r="H15" s="144" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
@@ -10436,7 +10772,7 @@
       <c r="AG15" s="145"/>
       <c r="AH15" s="146"/>
     </row>
-    <row r="16" spans="1:38" ht="12" customHeight="1">
+    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -10476,7 +10812,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1">
+    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -10513,7 +10849,7 @@
       <c r="AH17" s="36"/>
       <c r="AI17" s="30"/>
     </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1">
+    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -10550,40 +10886,40 @@
       <c r="AH18" s="36"/>
       <c r="AI18" s="30"/>
     </row>
-    <row r="19" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="268"/>
-      <c r="L19" s="268"/>
-      <c r="M19" s="268"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="267"/>
-      <c r="Q19" s="267"/>
-      <c r="R19" s="267"/>
-      <c r="S19" s="267"/>
-      <c r="T19" s="267"/>
-      <c r="U19" s="267"/>
-      <c r="V19" s="267"/>
-      <c r="W19" s="267"/>
-      <c r="X19" s="267"/>
-      <c r="Y19" s="267"/>
-      <c r="Z19" s="267"/>
-      <c r="AA19" s="267"/>
-      <c r="AB19" s="267"/>
-      <c r="AC19" s="267"/>
-      <c r="AD19" s="267"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="266"/>
+      <c r="K19" s="266"/>
+      <c r="L19" s="266"/>
+      <c r="M19" s="266"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="264"/>
+      <c r="P19" s="265"/>
+      <c r="Q19" s="265"/>
+      <c r="R19" s="265"/>
+      <c r="S19" s="265"/>
+      <c r="T19" s="265"/>
+      <c r="U19" s="265"/>
+      <c r="V19" s="265"/>
+      <c r="W19" s="265"/>
+      <c r="X19" s="265"/>
+      <c r="Y19" s="265"/>
+      <c r="Z19" s="265"/>
+      <c r="AA19" s="265"/>
+      <c r="AB19" s="265"/>
+      <c r="AC19" s="265"/>
+      <c r="AD19" s="265"/>
       <c r="AE19" s="32"/>
     </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1">
+    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -10620,7 +10956,7 @@
       <c r="AH20" s="30"/>
       <c r="AI20" s="30"/>
     </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1">
+    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -10657,7 +10993,7 @@
       <c r="AH21" s="30"/>
       <c r="AI21" s="30"/>
     </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1">
+    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -10694,7 +11030,7 @@
       <c r="AH22" s="30"/>
       <c r="AI22" s="30"/>
     </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1">
+    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -10731,7 +11067,7 @@
       <c r="AH23" s="30"/>
       <c r="AI23" s="30"/>
     </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1">
+    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -10768,7 +11104,7 @@
       <c r="AH24" s="30"/>
       <c r="AI24" s="30"/>
     </row>
-    <row r="25" spans="1:35" ht="12" customHeight="1">
+    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -10805,7 +11141,7 @@
       <c r="AH25" s="30"/>
       <c r="AI25" s="30"/>
     </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1">
+    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -10842,7 +11178,7 @@
       <c r="AH26" s="30"/>
       <c r="AI26" s="30"/>
     </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1">
+    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -10879,7 +11215,7 @@
       <c r="AH27" s="30"/>
       <c r="AI27" s="30"/>
     </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1">
+    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -10916,7 +11252,7 @@
       <c r="AH28" s="30"/>
       <c r="AI28" s="30"/>
     </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1">
+    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -10953,7 +11289,7 @@
       <c r="AH29" s="30"/>
       <c r="AI29" s="30"/>
     </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1">
+    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -10990,7 +11326,7 @@
       <c r="AH30" s="30"/>
       <c r="AI30" s="30"/>
     </row>
-    <row r="31" spans="1:35" ht="12" customHeight="1">
+    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -11027,9 +11363,9 @@
       <c r="AH31" s="30"/>
       <c r="AI31" s="30"/>
     </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
+    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="D10:G10"/>
@@ -11077,7 +11413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11087,12 +11423,12 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
@@ -11113,24 +11449,24 @@
       <c r="M1" s="177"/>
       <c r="N1" s="178"/>
       <c r="O1" s="185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="186"/>
       <c r="Q1" s="186"/>
       <c r="R1" s="187"/>
-      <c r="S1" s="245" t="str">
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="247"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
       <c r="AA1" s="182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB1" s="184"/>
       <c r="AC1" s="166" t="str">
@@ -11140,14 +11476,14 @@
       <c r="AD1" s="167"/>
       <c r="AE1" s="167"/>
       <c r="AF1" s="168"/>
-      <c r="AG1" s="255">
+      <c r="AG1" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
-    </row>
-    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
+    </row>
+    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
@@ -11171,33 +11507,33 @@
       <c r="P2" s="189"/>
       <c r="Q2" s="189"/>
       <c r="R2" s="190"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
       <c r="AA2" s="182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB2" s="184"/>
       <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="167"/>
       <c r="AE2" s="167"/>
       <c r="AF2" s="168"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AG2" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
-    </row>
-    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
+    </row>
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
@@ -11221,14 +11557,14 @@
       <c r="P3" s="192"/>
       <c r="Q3" s="192"/>
       <c r="R3" s="193"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="253"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
       <c r="AA3" s="182"/>
       <c r="AB3" s="184"/>
       <c r="AC3" s="166" t="str">
@@ -11238,22 +11574,22 @@
       <c r="AD3" s="167"/>
       <c r="AE3" s="167"/>
       <c r="AF3" s="168"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AG3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="J13" s="91" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -11288,22 +11624,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL77"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
@@ -11324,24 +11660,24 @@
       <c r="M1" s="177"/>
       <c r="N1" s="178"/>
       <c r="O1" s="185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="186"/>
       <c r="Q1" s="186"/>
       <c r="R1" s="187"/>
-      <c r="S1" s="245" t="str">
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="247"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
       <c r="AA1" s="182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB1" s="184"/>
       <c r="AC1" s="166" t="str">
@@ -11351,17 +11687,17 @@
       <c r="AD1" s="167"/>
       <c r="AE1" s="167"/>
       <c r="AF1" s="168"/>
-      <c r="AG1" s="255">
+      <c r="AG1" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
-    <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
@@ -11385,36 +11721,36 @@
       <c r="P2" s="189"/>
       <c r="Q2" s="189"/>
       <c r="R2" s="190"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
       <c r="AA2" s="182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB2" s="184"/>
       <c r="AC2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="167"/>
       <c r="AE2" s="167"/>
       <c r="AF2" s="168"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AG2" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
-    <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="182" t="s">
         <v>3</v>
       </c>
@@ -11438,14 +11774,14 @@
       <c r="P3" s="192"/>
       <c r="Q3" s="192"/>
       <c r="R3" s="193"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="253"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
       <c r="AA3" s="182"/>
       <c r="AB3" s="184"/>
       <c r="AC3" s="166" t="str">
@@ -11455,20 +11791,20 @@
       <c r="AD3" s="167"/>
       <c r="AE3" s="167"/>
       <c r="AF3" s="168"/>
-      <c r="AG3" s="255" t="str">
+      <c r="AG3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -11503,10 +11839,10 @@
       <c r="AG5" s="30"/>
       <c r="AH5" s="30"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -11540,7 +11876,7 @@
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="40"/>
@@ -11575,106 +11911,106 @@
       <c r="AG7" s="30"/>
       <c r="AH7" s="30"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="341" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="343" t="s">
+      <c r="D8" s="340" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="345"/>
-      <c r="K8" s="349" t="s">
+      <c r="E8" s="342" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="345"/>
-      <c r="O8" s="353" t="s">
+      <c r="F8" s="343"/>
+      <c r="G8" s="343"/>
+      <c r="H8" s="343"/>
+      <c r="I8" s="343"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="348" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="358" t="s">
+      <c r="L8" s="343"/>
+      <c r="M8" s="343"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="359"/>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
-      <c r="T8" s="359"/>
-      <c r="U8" s="360"/>
-      <c r="V8" s="355" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" s="355"/>
-      <c r="X8" s="355"/>
-      <c r="Y8" s="355"/>
-      <c r="Z8" s="355"/>
-      <c r="AA8" s="355"/>
-      <c r="AB8" s="355"/>
-      <c r="AC8" s="355"/>
-      <c r="AD8" s="355"/>
-      <c r="AE8" s="355"/>
-      <c r="AF8" s="355"/>
-      <c r="AG8" s="355"/>
-      <c r="AH8" s="355"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="P8" s="357" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="358"/>
+      <c r="R8" s="358"/>
+      <c r="S8" s="358"/>
+      <c r="T8" s="358"/>
+      <c r="U8" s="359"/>
+      <c r="V8" s="354" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="354"/>
+      <c r="X8" s="354"/>
+      <c r="Y8" s="354"/>
+      <c r="Z8" s="354"/>
+      <c r="AA8" s="354"/>
+      <c r="AB8" s="354"/>
+      <c r="AC8" s="354"/>
+      <c r="AD8" s="354"/>
+      <c r="AE8" s="354"/>
+      <c r="AF8" s="354"/>
+      <c r="AG8" s="354"/>
+      <c r="AH8" s="354"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="342"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="347"/>
-      <c r="G9" s="347"/>
-      <c r="H9" s="347"/>
-      <c r="I9" s="347"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="347"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="348"/>
-      <c r="O9" s="354"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="346"/>
+      <c r="G9" s="346"/>
+      <c r="H9" s="346"/>
+      <c r="I9" s="346"/>
+      <c r="J9" s="347"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="346"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="353"/>
       <c r="P9" s="90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" s="90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="356" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="357"/>
-      <c r="V9" s="355"/>
-      <c r="W9" s="355"/>
-      <c r="X9" s="355"/>
-      <c r="Y9" s="355"/>
-      <c r="Z9" s="355"/>
-      <c r="AA9" s="355"/>
-      <c r="AB9" s="355"/>
-      <c r="AC9" s="355"/>
-      <c r="AD9" s="355"/>
-      <c r="AE9" s="355"/>
-      <c r="AF9" s="355"/>
-      <c r="AG9" s="355"/>
-      <c r="AH9" s="355"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="T9" s="355" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="356"/>
+      <c r="V9" s="354"/>
+      <c r="W9" s="354"/>
+      <c r="X9" s="354"/>
+      <c r="Y9" s="354"/>
+      <c r="Z9" s="354"/>
+      <c r="AA9" s="354"/>
+      <c r="AB9" s="354"/>
+      <c r="AC9" s="354"/>
+      <c r="AD9" s="354"/>
+      <c r="AE9" s="354"/>
+      <c r="AF9" s="354"/>
+      <c r="AG9" s="354"/>
+      <c r="AH9" s="354"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="278" t="s">
-        <v>77</v>
+      <c r="E10" s="273" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="213"/>
       <c r="G10" s="213"/>
@@ -11682,30 +12018,30 @@
       <c r="I10" s="213"/>
       <c r="J10" s="214"/>
       <c r="K10" s="212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="213"/>
       <c r="M10" s="213"/>
       <c r="N10" s="214"/>
       <c r="O10" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="89" t="s">
-        <v>82</v>
-      </c>
       <c r="Q10" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R10" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S10" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="270" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="271"/>
+        <v>79</v>
+      </c>
+      <c r="T10" s="268" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="269"/>
       <c r="V10" s="212"/>
       <c r="W10" s="213"/>
       <c r="X10" s="213"/>
@@ -11720,14 +12056,14 @@
       <c r="AG10" s="213"/>
       <c r="AH10" s="214"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="278" t="s">
-        <v>107</v>
+      <c r="E11" s="273" t="s">
+        <v>101</v>
       </c>
       <c r="F11" s="213"/>
       <c r="G11" s="213"/>
@@ -11735,30 +12071,30 @@
       <c r="I11" s="213"/>
       <c r="J11" s="214"/>
       <c r="K11" s="212" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L11" s="213"/>
       <c r="M11" s="213"/>
       <c r="N11" s="214"/>
       <c r="O11" s="116" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P11" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="89" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R11" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S11" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="270" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" s="271"/>
+        <v>79</v>
+      </c>
+      <c r="T11" s="268" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" s="269"/>
       <c r="V11" s="212"/>
       <c r="W11" s="213"/>
       <c r="X11" s="213"/>
@@ -11773,14 +12109,14 @@
       <c r="AG11" s="213"/>
       <c r="AH11" s="214"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="278" t="s">
-        <v>78</v>
+      <c r="E12" s="273" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="213"/>
       <c r="G12" s="213"/>
@@ -11788,30 +12124,30 @@
       <c r="I12" s="213"/>
       <c r="J12" s="214"/>
       <c r="K12" s="212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="214"/>
       <c r="O12" s="116" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R12" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S12" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="T12" s="270" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="271"/>
+        <v>79</v>
+      </c>
+      <c r="T12" s="268" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="269"/>
       <c r="V12" s="212"/>
       <c r="W12" s="213"/>
       <c r="X12" s="213"/>
@@ -11826,7 +12162,7 @@
       <c r="AG12" s="213"/>
       <c r="AH12" s="214"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="109"/>
@@ -11861,7 +12197,7 @@
       <c r="AG13" s="122"/>
       <c r="AH13" s="122"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="40"/>
@@ -11896,10 +12232,10 @@
       <c r="AG14" s="30"/>
       <c r="AH14" s="30"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
       <c r="C15" s="91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="93"/>
       <c r="E15" s="93"/>
@@ -11933,7 +12269,7 @@
       <c r="AG15" s="126"/>
       <c r="AH15" s="126"/>
     </row>
-    <row r="16" spans="1:38" s="88" customFormat="1">
+    <row r="16" spans="1:38" s="88" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="93"/>
       <c r="D16" s="93"/>
@@ -11968,60 +12304,60 @@
       <c r="AG16" s="126"/>
       <c r="AH16" s="126"/>
     </row>
-    <row r="17" spans="1:35" s="88" customFormat="1" ht="24.75" customHeight="1">
+    <row r="17" spans="1:35" s="88" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="113"/>
       <c r="D17" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="360" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="361" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="362"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="275" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="276"/>
-      <c r="J17" s="276"/>
-      <c r="K17" s="276"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="276"/>
-      <c r="N17" s="276"/>
-      <c r="O17" s="276"/>
-      <c r="P17" s="276"/>
-      <c r="Q17" s="276"/>
-      <c r="R17" s="276"/>
-      <c r="S17" s="276"/>
-      <c r="T17" s="276"/>
-      <c r="U17" s="276"/>
-      <c r="V17" s="276"/>
-      <c r="W17" s="276"/>
-      <c r="X17" s="276"/>
-      <c r="Y17" s="276"/>
-      <c r="Z17" s="276"/>
-      <c r="AA17" s="276"/>
-      <c r="AB17" s="276"/>
-      <c r="AC17" s="276"/>
-      <c r="AD17" s="276"/>
-      <c r="AE17" s="276"/>
-      <c r="AF17" s="276"/>
-      <c r="AG17" s="276"/>
-      <c r="AH17" s="277"/>
-    </row>
-    <row r="18" spans="1:35" s="88" customFormat="1" ht="23.25" customHeight="1">
+      <c r="F17" s="361"/>
+      <c r="G17" s="362"/>
+      <c r="H17" s="270" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="271"/>
+      <c r="J17" s="271"/>
+      <c r="K17" s="271"/>
+      <c r="L17" s="271"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="271"/>
+      <c r="O17" s="271"/>
+      <c r="P17" s="271"/>
+      <c r="Q17" s="271"/>
+      <c r="R17" s="271"/>
+      <c r="S17" s="271"/>
+      <c r="T17" s="271"/>
+      <c r="U17" s="271"/>
+      <c r="V17" s="271"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
+      <c r="Y17" s="271"/>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
+      <c r="AE17" s="271"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="272"/>
+    </row>
+    <row r="18" spans="1:35" s="88" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="93"/>
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="278" t="s">
-        <v>123</v>
+      <c r="E18" s="273" t="s">
+        <v>117</v>
       </c>
       <c r="F18" s="213"/>
       <c r="G18" s="214"/>
-      <c r="H18" s="278" t="s">
-        <v>122</v>
+      <c r="H18" s="273" t="s">
+        <v>116</v>
       </c>
       <c r="I18" s="213"/>
       <c r="J18" s="213"/>
@@ -12050,19 +12386,19 @@
       <c r="AG18" s="213"/>
       <c r="AH18" s="214"/>
     </row>
-    <row r="19" spans="1:35" ht="23.25" customHeight="1">
+    <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="93"/>
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="278" t="s">
-        <v>114</v>
+      <c r="E19" s="273" t="s">
+        <v>108</v>
       </c>
       <c r="F19" s="213"/>
       <c r="G19" s="214"/>
-      <c r="H19" s="278" t="s">
-        <v>115</v>
+      <c r="H19" s="273" t="s">
+        <v>109</v>
       </c>
       <c r="I19" s="213"/>
       <c r="J19" s="213"/>
@@ -12091,19 +12427,19 @@
       <c r="AG19" s="213"/>
       <c r="AH19" s="214"/>
     </row>
-    <row r="20" spans="1:35" ht="23.25" customHeight="1">
+    <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="93"/>
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="278" t="s">
-        <v>124</v>
+      <c r="E20" s="273" t="s">
+        <v>118</v>
       </c>
       <c r="F20" s="213"/>
       <c r="G20" s="214"/>
-      <c r="H20" s="278" t="s">
-        <v>125</v>
+      <c r="H20" s="273" t="s">
+        <v>119</v>
       </c>
       <c r="I20" s="213"/>
       <c r="J20" s="213"/>
@@ -12132,7 +12468,7 @@
       <c r="AG20" s="213"/>
       <c r="AH20" s="214"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B21" s="87"/>
       <c r="C21" s="106"/>
       <c r="D21" s="107"/>
@@ -12167,7 +12503,7 @@
       <c r="AG21" s="126"/>
       <c r="AH21" s="126"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
       <c r="D22" s="87"/>
@@ -12202,10 +12538,10 @@
       <c r="AG22" s="126"/>
       <c r="AH22" s="126"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B23" s="87"/>
       <c r="C23" s="93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="92"/>
@@ -12239,11 +12575,11 @@
       <c r="AG23" s="124"/>
       <c r="AH23" s="124"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B24" s="87"/>
       <c r="C24" s="93"/>
       <c r="D24" s="92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="92"/>
@@ -12276,7 +12612,7 @@
       <c r="AG24" s="124"/>
       <c r="AH24" s="124"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B25" s="87"/>
       <c r="C25" s="93"/>
       <c r="D25" s="92"/>
@@ -12311,14 +12647,14 @@
       <c r="AG25" s="124"/>
       <c r="AH25" s="124"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B26" s="87"/>
       <c r="C26" s="150"/>
       <c r="E26" s="151" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F26" s="152" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G26" s="153"/>
       <c r="H26" s="153"/>
@@ -12326,7 +12662,7 @@
       <c r="J26" s="153"/>
       <c r="K26" s="154"/>
       <c r="L26" s="152" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M26" s="153"/>
       <c r="N26" s="153"/>
@@ -12338,10 +12674,10 @@
       <c r="T26" s="153"/>
       <c r="U26" s="154"/>
       <c r="V26" s="152" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="W26" s="152" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="X26" s="153"/>
       <c r="Y26" s="153"/>
@@ -12353,7 +12689,7 @@
       <c r="AG26" s="124"/>
       <c r="AH26" s="125"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="87"/>
       <c r="C27" s="150"/>
@@ -12362,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="158" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G27" s="159"/>
       <c r="H27" s="159"/>
@@ -12370,7 +12706,7 @@
       <c r="J27" s="159"/>
       <c r="K27" s="160"/>
       <c r="L27" s="158" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="M27" s="159"/>
       <c r="N27" s="159"/>
@@ -12382,10 +12718,10 @@
       <c r="T27" s="159"/>
       <c r="U27" s="160"/>
       <c r="V27" s="158" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="W27" s="161" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="X27" s="162"/>
       <c r="Y27" s="162"/>
@@ -12397,11 +12733,11 @@
       <c r="AG27" s="124"/>
       <c r="AH27" s="125"/>
     </row>
-    <row r="28" spans="1:35" s="86" customFormat="1">
+    <row r="28" spans="1:35" s="86" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
@@ -12438,11 +12774,11 @@
       <c r="AH29" s="48"/>
       <c r="AI29" s="48"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A30" s="48"/>
       <c r="B30" s="48"/>
       <c r="C30" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -12477,12 +12813,12 @@
       <c r="AH30" s="48"/>
       <c r="AI30" s="48"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
@@ -12516,7 +12852,7 @@
       <c r="AH31" s="48"/>
       <c r="AI31" s="48"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -12553,56 +12889,56 @@
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
     </row>
-    <row r="33" spans="1:35" ht="41.25" customHeight="1">
+    <row r="33" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
       <c r="E33" s="128" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="299" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="300"/>
-      <c r="H33" s="300"/>
-      <c r="I33" s="300"/>
-      <c r="J33" s="300"/>
-      <c r="K33" s="301"/>
-      <c r="L33" s="302" t="s">
-        <v>97</v>
-      </c>
-      <c r="M33" s="300"/>
-      <c r="N33" s="300"/>
-      <c r="O33" s="300"/>
-      <c r="P33" s="300"/>
-      <c r="Q33" s="300"/>
-      <c r="R33" s="300"/>
-      <c r="S33" s="300"/>
-      <c r="T33" s="300"/>
-      <c r="U33" s="301"/>
-      <c r="V33" s="303" t="s">
-        <v>98</v>
-      </c>
-      <c r="W33" s="304"/>
-      <c r="X33" s="305"/>
-      <c r="Y33" s="303" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z33" s="304"/>
-      <c r="AA33" s="304"/>
-      <c r="AB33" s="305"/>
-      <c r="AC33" s="306" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD33" s="307"/>
-      <c r="AE33" s="307"/>
-      <c r="AF33" s="308"/>
+        <v>89</v>
+      </c>
+      <c r="F33" s="298" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="299"/>
+      <c r="H33" s="299"/>
+      <c r="I33" s="299"/>
+      <c r="J33" s="299"/>
+      <c r="K33" s="300"/>
+      <c r="L33" s="301" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="299"/>
+      <c r="N33" s="299"/>
+      <c r="O33" s="299"/>
+      <c r="P33" s="299"/>
+      <c r="Q33" s="299"/>
+      <c r="R33" s="299"/>
+      <c r="S33" s="299"/>
+      <c r="T33" s="299"/>
+      <c r="U33" s="300"/>
+      <c r="V33" s="302" t="s">
+        <v>92</v>
+      </c>
+      <c r="W33" s="303"/>
+      <c r="X33" s="304"/>
+      <c r="Y33" s="302" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z33" s="303"/>
+      <c r="AA33" s="303"/>
+      <c r="AB33" s="304"/>
+      <c r="AC33" s="305" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD33" s="306"/>
+      <c r="AE33" s="306"/>
+      <c r="AF33" s="307"/>
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
     </row>
-    <row r="34" spans="1:35" ht="36.75" customHeight="1">
+    <row r="34" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -12610,48 +12946,48 @@
       <c r="E34" s="129">
         <v>1</v>
       </c>
-      <c r="F34" s="333" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="313"/>
-      <c r="H34" s="313"/>
-      <c r="I34" s="313"/>
-      <c r="J34" s="313"/>
-      <c r="K34" s="314"/>
-      <c r="L34" s="312" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="313"/>
-      <c r="N34" s="313"/>
-      <c r="O34" s="313"/>
-      <c r="P34" s="313"/>
-      <c r="Q34" s="313"/>
-      <c r="R34" s="313"/>
-      <c r="S34" s="313"/>
-      <c r="T34" s="313"/>
-      <c r="U34" s="314"/>
-      <c r="V34" s="334" t="s">
-        <v>103</v>
-      </c>
-      <c r="W34" s="335"/>
-      <c r="X34" s="336"/>
-      <c r="Y34" s="309" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z34" s="310"/>
-      <c r="AA34" s="310"/>
-      <c r="AB34" s="311"/>
-      <c r="AC34" s="312" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD34" s="313"/>
-      <c r="AE34" s="313"/>
-      <c r="AF34" s="314"/>
+      <c r="F34" s="332" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="312"/>
+      <c r="J34" s="312"/>
+      <c r="K34" s="313"/>
+      <c r="L34" s="311" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="312"/>
+      <c r="N34" s="312"/>
+      <c r="O34" s="312"/>
+      <c r="P34" s="312"/>
+      <c r="Q34" s="312"/>
+      <c r="R34" s="312"/>
+      <c r="S34" s="312"/>
+      <c r="T34" s="312"/>
+      <c r="U34" s="313"/>
+      <c r="V34" s="333" t="s">
+        <v>97</v>
+      </c>
+      <c r="W34" s="334"/>
+      <c r="X34" s="335"/>
+      <c r="Y34" s="308" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z34" s="309"/>
+      <c r="AA34" s="309"/>
+      <c r="AB34" s="310"/>
+      <c r="AC34" s="311" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD34" s="312"/>
+      <c r="AE34" s="312"/>
+      <c r="AF34" s="313"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -12688,216 +13024,223 @@
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="58"/>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
       <c r="D36"/>
-      <c r="E36" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="58"/>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37"/>
-      <c r="E37" s="364" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="371" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" s="371"/>
-      <c r="L37" s="371"/>
-      <c r="M37" s="372" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" s="373"/>
-      <c r="O37" s="373"/>
-      <c r="P37" s="373"/>
-      <c r="Q37" s="373"/>
-      <c r="R37" s="373"/>
-      <c r="S37" s="374"/>
-      <c r="T37" s="372" t="s">
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="149"/>
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="149"/>
+      <c r="AC36" s="149"/>
+      <c r="AD36" s="149"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="284" t="s">
         <v>99</v>
       </c>
-      <c r="U37" s="373"/>
-      <c r="V37" s="373"/>
-      <c r="W37" s="373"/>
-      <c r="X37" s="373"/>
-      <c r="Y37" s="373"/>
-      <c r="Z37" s="373"/>
-      <c r="AA37" s="373"/>
-      <c r="AB37" s="373"/>
-      <c r="AC37" s="373"/>
-      <c r="AD37" s="374"/>
-    </row>
-    <row r="38" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38"/>
-      <c r="E38" s="312" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="366"/>
-      <c r="G38" s="366"/>
-      <c r="H38" s="366"/>
-      <c r="I38" s="366"/>
-      <c r="J38" s="367" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38" s="367"/>
-      <c r="L38" s="367"/>
-      <c r="M38" s="368" t="s">
-        <v>133</v>
-      </c>
-      <c r="N38" s="369"/>
-      <c r="O38" s="369"/>
-      <c r="P38" s="369"/>
-      <c r="Q38" s="369"/>
-      <c r="R38" s="369"/>
-      <c r="S38" s="370"/>
-      <c r="T38" s="368" t="s">
-        <v>133</v>
-      </c>
-      <c r="U38" s="369"/>
-      <c r="V38" s="369"/>
-      <c r="W38" s="369"/>
-      <c r="X38" s="369"/>
-      <c r="Y38" s="369"/>
-      <c r="Z38" s="369"/>
-      <c r="AA38" s="369"/>
-      <c r="AB38" s="369"/>
-      <c r="AC38" s="369"/>
-      <c r="AD38" s="370"/>
-    </row>
-    <row r="39" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="149"/>
-      <c r="R39" s="149"/>
-      <c r="S39" s="149"/>
-      <c r="T39" s="149"/>
-      <c r="U39" s="149"/>
-      <c r="V39" s="149"/>
-      <c r="W39" s="149"/>
-      <c r="X39" s="149"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
-      <c r="AB39" s="149"/>
-      <c r="AC39" s="149"/>
-      <c r="AD39" s="149"/>
-    </row>
-    <row r="40" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="149"/>
-      <c r="P40" s="149"/>
-      <c r="Q40" s="149"/>
-      <c r="R40" s="149"/>
-      <c r="S40" s="149"/>
-      <c r="T40" s="149"/>
-      <c r="U40" s="149"/>
-      <c r="V40" s="149"/>
-      <c r="W40" s="149"/>
-      <c r="X40" s="149"/>
-      <c r="Y40" s="149"/>
-      <c r="Z40" s="149"/>
-      <c r="AA40" s="149"/>
-      <c r="AB40" s="149"/>
-      <c r="AC40" s="149"/>
-      <c r="AD40" s="149"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="F39" s="285"/>
+      <c r="G39" s="285"/>
+      <c r="H39" s="285"/>
+      <c r="I39" s="285"/>
+      <c r="J39" s="285"/>
+      <c r="K39" s="285"/>
+      <c r="L39" s="285"/>
+      <c r="M39" s="285"/>
+      <c r="N39" s="286"/>
+      <c r="O39" s="314" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" s="315"/>
+      <c r="Q39" s="315"/>
+      <c r="R39" s="315"/>
+      <c r="S39" s="315"/>
+      <c r="T39" s="315"/>
+      <c r="U39" s="315"/>
+      <c r="V39" s="315"/>
+      <c r="W39" s="315"/>
+      <c r="X39" s="316"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="317" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="318"/>
+      <c r="G40" s="318"/>
+      <c r="H40" s="318"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="318"/>
+      <c r="L40" s="318"/>
+      <c r="M40" s="318"/>
+      <c r="N40" s="319"/>
+      <c r="O40" s="326" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" s="327"/>
+      <c r="Q40" s="327"/>
+      <c r="R40" s="327"/>
+      <c r="S40" s="327"/>
+      <c r="T40" s="327"/>
+      <c r="U40" s="327"/>
+      <c r="V40" s="327"/>
+      <c r="W40" s="327"/>
+      <c r="X40" s="328"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
-      <c r="D41" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="320"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="321"/>
+      <c r="I41" s="321"/>
+      <c r="J41" s="321"/>
+      <c r="K41" s="321"/>
+      <c r="L41" s="321"/>
+      <c r="M41" s="321"/>
+      <c r="N41" s="322"/>
+      <c r="O41" s="326" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" s="327"/>
+      <c r="Q41" s="327"/>
+      <c r="R41" s="327"/>
+      <c r="S41" s="327"/>
+      <c r="T41" s="327"/>
+      <c r="U41" s="327"/>
+      <c r="V41" s="327"/>
+      <c r="W41" s="327"/>
+      <c r="X41" s="328"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
@@ -12910,31 +13253,33 @@
       <c r="AH41" s="48"/>
       <c r="AI41" s="48"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42" s="48"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
+      <c r="E42" s="323"/>
+      <c r="F42" s="324"/>
+      <c r="G42" s="324"/>
+      <c r="H42" s="324"/>
+      <c r="I42" s="324"/>
+      <c r="J42" s="324"/>
+      <c r="K42" s="324"/>
+      <c r="L42" s="324"/>
+      <c r="M42" s="324"/>
+      <c r="N42" s="325"/>
+      <c r="O42" s="329" t="s">
+        <v>87</v>
+      </c>
+      <c r="P42" s="330"/>
+      <c r="Q42" s="330"/>
+      <c r="R42" s="330"/>
+      <c r="S42" s="330"/>
+      <c r="T42" s="330"/>
+      <c r="U42" s="330"/>
+      <c r="V42" s="330"/>
+      <c r="W42" s="330"/>
+      <c r="X42" s="331"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
@@ -12947,35 +13292,33 @@
       <c r="AH42" s="48"/>
       <c r="AI42" s="48"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="287" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="288"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="288"/>
-      <c r="I43" s="288"/>
-      <c r="J43" s="288"/>
-      <c r="K43" s="288"/>
-      <c r="L43" s="288"/>
-      <c r="M43" s="288"/>
-      <c r="N43" s="289"/>
-      <c r="O43" s="315" t="s">
-        <v>106</v>
-      </c>
-      <c r="P43" s="316"/>
-      <c r="Q43" s="316"/>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="317"/>
+      <c r="E43" s="281" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="282"/>
+      <c r="G43" s="282"/>
+      <c r="H43" s="282"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="282"/>
+      <c r="K43" s="282"/>
+      <c r="L43" s="282"/>
+      <c r="M43" s="282"/>
+      <c r="N43" s="282"/>
+      <c r="O43" s="282"/>
+      <c r="P43" s="282"/>
+      <c r="Q43" s="282"/>
+      <c r="R43" s="282"/>
+      <c r="S43" s="282"/>
+      <c r="T43" s="282"/>
+      <c r="U43" s="282"/>
+      <c r="V43" s="282"/>
+      <c r="W43" s="282"/>
+      <c r="X43" s="283"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
@@ -12988,35 +13331,31 @@
       <c r="AH43" s="48"/>
       <c r="AI43" s="48"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
-      <c r="E44" s="318" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="319"/>
-      <c r="G44" s="319"/>
-      <c r="H44" s="319"/>
-      <c r="I44" s="319"/>
-      <c r="J44" s="319"/>
-      <c r="K44" s="319"/>
-      <c r="L44" s="319"/>
-      <c r="M44" s="319"/>
-      <c r="N44" s="320"/>
-      <c r="O44" s="327" t="s">
-        <v>91</v>
-      </c>
-      <c r="P44" s="328"/>
-      <c r="Q44" s="328"/>
-      <c r="R44" s="328"/>
-      <c r="S44" s="328"/>
-      <c r="T44" s="328"/>
-      <c r="U44" s="328"/>
-      <c r="V44" s="328"/>
-      <c r="W44" s="328"/>
-      <c r="X44" s="329"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="131"/>
+      <c r="P44" s="131"/>
+      <c r="Q44" s="131"/>
+      <c r="R44" s="131"/>
+      <c r="S44" s="131"/>
+      <c r="T44" s="131"/>
+      <c r="U44" s="131"/>
+      <c r="V44" s="131"/>
+      <c r="W44" s="131"/>
+      <c r="X44" s="132"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
       <c r="AA44" s="48"/>
@@ -13029,33 +13368,37 @@
       <c r="AH44" s="48"/>
       <c r="AI44" s="48"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="321"/>
-      <c r="F45" s="322"/>
-      <c r="G45" s="322"/>
-      <c r="H45" s="322"/>
-      <c r="I45" s="322"/>
-      <c r="J45" s="322"/>
-      <c r="K45" s="322"/>
-      <c r="L45" s="322"/>
-      <c r="M45" s="322"/>
-      <c r="N45" s="323"/>
-      <c r="O45" s="327" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" s="328"/>
-      <c r="Q45" s="328"/>
-      <c r="R45" s="328"/>
-      <c r="S45" s="328"/>
-      <c r="T45" s="328"/>
-      <c r="U45" s="328"/>
-      <c r="V45" s="328"/>
-      <c r="W45" s="328"/>
-      <c r="X45" s="329"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="137"/>
+      <c r="X45" s="138"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
@@ -13068,33 +13411,31 @@
       <c r="AH45" s="48"/>
       <c r="AI45" s="48"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="325"/>
-      <c r="G46" s="325"/>
-      <c r="H46" s="325"/>
-      <c r="I46" s="325"/>
-      <c r="J46" s="325"/>
-      <c r="K46" s="325"/>
-      <c r="L46" s="325"/>
-      <c r="M46" s="325"/>
-      <c r="N46" s="326"/>
-      <c r="O46" s="330" t="s">
-        <v>93</v>
-      </c>
-      <c r="P46" s="331"/>
-      <c r="Q46" s="331"/>
-      <c r="R46" s="331"/>
-      <c r="S46" s="331"/>
-      <c r="T46" s="331"/>
-      <c r="U46" s="331"/>
-      <c r="V46" s="331"/>
-      <c r="W46" s="331"/>
-      <c r="X46" s="332"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="140"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="140"/>
+      <c r="T46" s="142"/>
+      <c r="U46" s="140"/>
+      <c r="V46" s="140"/>
+      <c r="W46" s="140"/>
+      <c r="X46" s="143"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="48"/>
@@ -13107,33 +13448,31 @@
       <c r="AH46" s="48"/>
       <c r="AI46" s="48"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="284" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
-      <c r="H47" s="285"/>
-      <c r="I47" s="285"/>
-      <c r="J47" s="285"/>
-      <c r="K47" s="285"/>
-      <c r="L47" s="285"/>
-      <c r="M47" s="285"/>
-      <c r="N47" s="285"/>
-      <c r="O47" s="285"/>
-      <c r="P47" s="285"/>
-      <c r="Q47" s="285"/>
-      <c r="R47" s="285"/>
-      <c r="S47" s="285"/>
-      <c r="T47" s="285"/>
-      <c r="U47" s="285"/>
-      <c r="V47" s="285"/>
-      <c r="W47" s="285"/>
-      <c r="X47" s="286"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="48"/>
@@ -13146,111 +13485,104 @@
       <c r="AH47" s="48"/>
       <c r="AI47" s="48"/>
     </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="131"/>
-      <c r="L48" s="131"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="131"/>
-      <c r="O48" s="131"/>
-      <c r="P48" s="131"/>
-      <c r="Q48" s="131"/>
-      <c r="R48" s="131"/>
-      <c r="S48" s="131"/>
-      <c r="T48" s="131"/>
-      <c r="U48" s="131"/>
-      <c r="V48" s="131"/>
-      <c r="W48" s="131"/>
-      <c r="X48" s="132"/>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
-      <c r="AF48" s="48"/>
-      <c r="AG48" s="48"/>
-      <c r="AH48" s="48"/>
-      <c r="AI48" s="48"/>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="134" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136" t="s">
-        <v>110</v>
-      </c>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
-      <c r="N49" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="O49" s="135"/>
-      <c r="P49" s="135"/>
-      <c r="Q49" s="135"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="137"/>
-      <c r="T49" s="137"/>
-      <c r="U49" s="137"/>
-      <c r="V49" s="137"/>
-      <c r="W49" s="137"/>
-      <c r="X49" s="138"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="48"/>
-      <c r="AG49" s="48"/>
-      <c r="AH49" s="48"/>
-      <c r="AI49" s="48"/>
-    </row>
-    <row r="50" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48"/>
+      <c r="E48" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
+    </row>
+    <row r="49" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="149"/>
+      <c r="O49" s="149"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="149"/>
+      <c r="R49" s="149"/>
+      <c r="S49" s="149"/>
+      <c r="T49" s="149"/>
+      <c r="U49" s="149"/>
+      <c r="V49" s="149"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="149"/>
+      <c r="Z49" s="149"/>
+      <c r="AA49" s="149"/>
+      <c r="AB49" s="149"/>
+      <c r="AC49" s="149"/>
+      <c r="AD49" s="149"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="141"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="140"/>
-      <c r="R50" s="140"/>
-      <c r="S50" s="140"/>
-      <c r="T50" s="142"/>
-      <c r="U50" s="140"/>
-      <c r="V50" s="140"/>
-      <c r="W50" s="140"/>
-      <c r="X50" s="143"/>
+      <c r="D50" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48"/>
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
       <c r="AA50" s="48"/>
@@ -13263,7 +13595,7 @@
       <c r="AH50" s="48"/>
       <c r="AI50" s="48"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -13300,350 +13632,328 @@
       <c r="AH51" s="48"/>
       <c r="AI51" s="48"/>
     </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52"/>
-      <c r="E52" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="58"/>
-    </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53"/>
-      <c r="E53" s="364" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="365"/>
-      <c r="G53" s="365"/>
-      <c r="H53" s="365"/>
-      <c r="I53" s="365"/>
-      <c r="J53" s="371" t="s">
-        <v>129</v>
-      </c>
-      <c r="K53" s="371"/>
-      <c r="L53" s="371"/>
-      <c r="M53" s="372" t="s">
-        <v>130</v>
-      </c>
-      <c r="N53" s="373"/>
-      <c r="O53" s="373"/>
-      <c r="P53" s="373"/>
-      <c r="Q53" s="373"/>
-      <c r="R53" s="373"/>
-      <c r="S53" s="374"/>
-      <c r="T53" s="372" t="s">
-        <v>99</v>
-      </c>
-      <c r="U53" s="373"/>
-      <c r="V53" s="373"/>
-      <c r="W53" s="373"/>
-      <c r="X53" s="373"/>
-      <c r="Y53" s="373"/>
-      <c r="Z53" s="373"/>
-      <c r="AA53" s="373"/>
-      <c r="AB53" s="373"/>
-      <c r="AC53" s="373"/>
-      <c r="AD53" s="374"/>
-    </row>
-    <row r="54" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54"/>
-      <c r="E54" s="312" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="366"/>
-      <c r="G54" s="366"/>
-      <c r="H54" s="366"/>
-      <c r="I54" s="366"/>
-      <c r="J54" s="367" t="s">
-        <v>143</v>
-      </c>
-      <c r="K54" s="367"/>
-      <c r="L54" s="367"/>
-      <c r="M54" s="368" t="s">
-        <v>144</v>
-      </c>
-      <c r="N54" s="369"/>
-      <c r="O54" s="369"/>
-      <c r="P54" s="369"/>
-      <c r="Q54" s="369"/>
-      <c r="R54" s="369"/>
-      <c r="S54" s="370"/>
-      <c r="T54" s="368" t="s">
-        <v>136</v>
-      </c>
-      <c r="U54" s="369"/>
-      <c r="V54" s="369"/>
-      <c r="W54" s="369"/>
-      <c r="X54" s="369"/>
-      <c r="Y54" s="369"/>
-      <c r="Z54" s="369"/>
-      <c r="AA54" s="369"/>
-      <c r="AB54" s="369"/>
-      <c r="AC54" s="369"/>
-      <c r="AD54" s="370"/>
-    </row>
-    <row r="55" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148"/>
-      <c r="L55" s="148"/>
-      <c r="M55" s="149"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="149"/>
-      <c r="P55" s="149"/>
-      <c r="Q55" s="149"/>
-      <c r="R55" s="149"/>
-      <c r="S55" s="149"/>
-      <c r="T55" s="149"/>
-      <c r="U55" s="149"/>
-      <c r="V55" s="149"/>
-      <c r="W55" s="149"/>
-      <c r="X55" s="149"/>
-      <c r="Y55" s="149"/>
-      <c r="Z55" s="149"/>
-      <c r="AA55" s="149"/>
-      <c r="AB55" s="149"/>
-      <c r="AC55" s="149"/>
-      <c r="AD55" s="149"/>
-    </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="48"/>
-      <c r="AE56" s="48"/>
-      <c r="AF56" s="48"/>
-      <c r="AG56" s="48"/>
-      <c r="AH56" s="48"/>
-      <c r="AI56" s="48"/>
-    </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
-      <c r="AB57" s="48"/>
-      <c r="AC57" s="48"/>
-      <c r="AD57" s="48"/>
-      <c r="AE57" s="48"/>
-      <c r="AF57" s="48"/>
-      <c r="AG57" s="48"/>
-      <c r="AH57" s="48"/>
-      <c r="AI57" s="48"/>
-    </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
-      <c r="X58" s="48"/>
-      <c r="Y58" s="48"/>
-      <c r="Z58" s="48"/>
-      <c r="AA58" s="48"/>
-      <c r="AB58" s="48"/>
-      <c r="AC58" s="48"/>
-      <c r="AD58" s="48"/>
-      <c r="AE58" s="48"/>
-      <c r="AF58" s="48"/>
-      <c r="AG58" s="48"/>
-      <c r="AH58" s="48"/>
-      <c r="AI58" s="48"/>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="48"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="48"/>
-      <c r="X59" s="48"/>
-      <c r="Y59" s="48"/>
-      <c r="Z59" s="48"/>
-      <c r="AA59" s="48"/>
-      <c r="AB59" s="48"/>
-      <c r="AC59" s="48"/>
-      <c r="AD59" s="48"/>
-      <c r="AE59" s="48"/>
-      <c r="AF59" s="48"/>
-      <c r="AG59" s="48"/>
-      <c r="AH59" s="48"/>
-      <c r="AI59" s="48"/>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="48"/>
-      <c r="X60" s="48"/>
-      <c r="Y60" s="48"/>
-      <c r="Z60" s="48"/>
-      <c r="AA60" s="48"/>
-      <c r="AB60" s="48"/>
-      <c r="AC60" s="48"/>
-      <c r="AD60" s="48"/>
-      <c r="AE60" s="48"/>
-      <c r="AF60" s="48"/>
-      <c r="AG60" s="48"/>
-      <c r="AH60" s="48"/>
-      <c r="AI60" s="48"/>
-    </row>
-    <row r="61" spans="1:35">
-      <c r="C61" s="30" t="s">
-        <v>33</v>
-      </c>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="48"/>
+      <c r="AB52" s="48"/>
+      <c r="AC52" s="48"/>
+      <c r="AD52" s="48"/>
+      <c r="AE52" s="48"/>
+      <c r="AF52" s="48"/>
+      <c r="AG52" s="48"/>
+      <c r="AH52" s="48"/>
+      <c r="AI52" s="48"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="48"/>
+      <c r="AI53" s="48"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="48"/>
+      <c r="AC54" s="48"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="48"/>
+      <c r="AF54" s="48"/>
+      <c r="AG54" s="48"/>
+      <c r="AH54" s="48"/>
+      <c r="AI54" s="48"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C55" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="30"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C58" s="30"/>
+      <c r="E58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C59" s="30"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="336" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="336"/>
+      <c r="G60" s="349" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="350"/>
+      <c r="I60" s="350"/>
+      <c r="J60" s="350"/>
+      <c r="K60" s="350"/>
+      <c r="L60" s="351"/>
+      <c r="M60" s="336" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="336"/>
+      <c r="O60" s="349" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" s="350"/>
+      <c r="Q60" s="350"/>
+      <c r="R60" s="350"/>
+      <c r="S60" s="350"/>
+      <c r="T60" s="350"/>
+      <c r="U60" s="350"/>
+      <c r="V60" s="350"/>
+      <c r="W60" s="350"/>
+      <c r="X60" s="350"/>
+      <c r="Y60" s="350"/>
+      <c r="Z60" s="350"/>
+      <c r="AA60" s="350"/>
+      <c r="AB60" s="350"/>
+      <c r="AC60" s="350"/>
+      <c r="AD60" s="350"/>
+      <c r="AE60" s="350"/>
+      <c r="AF60" s="350"/>
+      <c r="AG60" s="350"/>
+      <c r="AH60" s="351"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C61" s="30"/>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -13674,11 +13984,9 @@
       <c r="AE61" s="30"/>
       <c r="AF61" s="30"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C62" s="30"/>
-      <c r="D62" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="D62" s="30"/>
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -13708,9 +14016,11 @@
       <c r="AE62" s="30"/>
       <c r="AF62" s="30"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="D63" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
@@ -13740,551 +14050,257 @@
       <c r="AE63" s="30"/>
       <c r="AF63" s="30"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C64" s="30"/>
-      <c r="E64" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="27"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
       <c r="AF64" s="30"/>
     </row>
-    <row r="65" spans="3:34">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C65" s="30"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="30"/>
-      <c r="AF65" s="30"/>
-    </row>
-    <row r="66" spans="3:34">
+      <c r="D65" s="30"/>
+      <c r="E65" s="337" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="292" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="293"/>
+      <c r="H65" s="293"/>
+      <c r="I65" s="294"/>
+      <c r="J65" s="292" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="293"/>
+      <c r="L65" s="293"/>
+      <c r="M65" s="294"/>
+      <c r="N65" s="339" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="339"/>
+      <c r="P65" s="339"/>
+      <c r="Q65" s="339"/>
+      <c r="R65" s="339"/>
+      <c r="S65" s="339"/>
+      <c r="T65" s="339"/>
+      <c r="U65" s="339"/>
+      <c r="V65" s="339"/>
+      <c r="W65" s="292" t="s">
+        <v>33</v>
+      </c>
+      <c r="X65" s="293"/>
+      <c r="Y65" s="293"/>
+      <c r="Z65" s="293"/>
+      <c r="AA65" s="293"/>
+      <c r="AB65" s="293"/>
+      <c r="AC65" s="294"/>
+      <c r="AD65" s="292" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE65" s="293"/>
+      <c r="AF65" s="293"/>
+      <c r="AG65" s="293"/>
+      <c r="AH65" s="294"/>
+    </row>
+    <row r="66" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="337" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="337"/>
-      <c r="G66" s="350" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="351"/>
-      <c r="I66" s="351"/>
-      <c r="J66" s="351"/>
-      <c r="K66" s="351"/>
-      <c r="L66" s="352"/>
-      <c r="M66" s="337" t="s">
-        <v>23</v>
-      </c>
-      <c r="N66" s="337"/>
-      <c r="O66" s="350" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="338"/>
+      <c r="F66" s="295"/>
+      <c r="G66" s="296"/>
+      <c r="H66" s="296"/>
+      <c r="I66" s="297"/>
+      <c r="J66" s="295"/>
+      <c r="K66" s="296"/>
+      <c r="L66" s="296"/>
+      <c r="M66" s="297"/>
+      <c r="N66" s="339" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" s="339"/>
+      <c r="P66" s="339"/>
+      <c r="Q66" s="339"/>
+      <c r="R66" s="339"/>
+      <c r="S66" s="267" t="s">
+        <v>29</v>
+      </c>
+      <c r="T66" s="267"/>
+      <c r="U66" s="267"/>
+      <c r="V66" s="267"/>
+      <c r="W66" s="295"/>
+      <c r="X66" s="296"/>
+      <c r="Y66" s="296"/>
+      <c r="Z66" s="296"/>
+      <c r="AA66" s="296"/>
+      <c r="AB66" s="296"/>
+      <c r="AC66" s="297"/>
+      <c r="AD66" s="295"/>
+      <c r="AE66" s="296"/>
+      <c r="AF66" s="296"/>
+      <c r="AG66" s="296"/>
+      <c r="AH66" s="297"/>
+    </row>
+    <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="30"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="41">
+        <v>1</v>
+      </c>
+      <c r="F67" s="287" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="291"/>
+      <c r="J67" s="287" t="s">
+        <v>81</v>
+      </c>
+      <c r="K67" s="288"/>
+      <c r="L67" s="288"/>
+      <c r="M67" s="289"/>
+      <c r="N67" s="274" t="s">
+        <v>84</v>
+      </c>
+      <c r="O67" s="275"/>
+      <c r="P67" s="275"/>
+      <c r="Q67" s="275"/>
+      <c r="R67" s="275"/>
+      <c r="S67" s="276" t="s">
+        <v>85</v>
+      </c>
+      <c r="T67" s="277"/>
+      <c r="U67" s="277"/>
+      <c r="V67" s="277"/>
+      <c r="W67" s="278"/>
+      <c r="X67" s="279"/>
+      <c r="Y67" s="279"/>
+      <c r="Z67" s="279"/>
+      <c r="AA67" s="279"/>
+      <c r="AB67" s="279"/>
+      <c r="AC67" s="280"/>
+      <c r="AD67" s="278"/>
+      <c r="AE67" s="279"/>
+      <c r="AF67" s="279"/>
+      <c r="AG67" s="279"/>
+      <c r="AH67" s="280"/>
+    </row>
+    <row r="68" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="30"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="41">
+        <v>2</v>
+      </c>
+      <c r="F68" s="287" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="290"/>
+      <c r="H68" s="290"/>
+      <c r="I68" s="291"/>
+      <c r="J68" s="287" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="288"/>
+      <c r="L68" s="288"/>
+      <c r="M68" s="289"/>
+      <c r="N68" s="274" t="s">
+        <v>84</v>
+      </c>
+      <c r="O68" s="275"/>
+      <c r="P68" s="275"/>
+      <c r="Q68" s="275"/>
+      <c r="R68" s="275"/>
+      <c r="S68" s="276" t="s">
+        <v>86</v>
+      </c>
+      <c r="T68" s="277"/>
+      <c r="U68" s="277"/>
+      <c r="V68" s="277"/>
+      <c r="W68" s="278"/>
+      <c r="X68" s="279"/>
+      <c r="Y68" s="279"/>
+      <c r="Z68" s="279"/>
+      <c r="AA68" s="279"/>
+      <c r="AB68" s="279"/>
+      <c r="AC68" s="280"/>
+      <c r="AD68" s="278"/>
+      <c r="AE68" s="279"/>
+      <c r="AF68" s="279"/>
+      <c r="AG68" s="279"/>
+      <c r="AH68" s="280"/>
+    </row>
+    <row r="69" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="30"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="41">
+        <v>3</v>
+      </c>
+      <c r="F69" s="287" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="290"/>
+      <c r="H69" s="290"/>
+      <c r="I69" s="291"/>
+      <c r="J69" s="287" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="351"/>
-      <c r="Q66" s="351"/>
-      <c r="R66" s="351"/>
-      <c r="S66" s="351"/>
-      <c r="T66" s="351"/>
-      <c r="U66" s="351"/>
-      <c r="V66" s="351"/>
-      <c r="W66" s="351"/>
-      <c r="X66" s="351"/>
-      <c r="Y66" s="351"/>
-      <c r="Z66" s="351"/>
-      <c r="AA66" s="351"/>
-      <c r="AB66" s="351"/>
-      <c r="AC66" s="351"/>
-      <c r="AD66" s="351"/>
-      <c r="AE66" s="351"/>
-      <c r="AF66" s="351"/>
-      <c r="AG66" s="351"/>
-      <c r="AH66" s="352"/>
-    </row>
-    <row r="67" spans="3:34">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-    </row>
-    <row r="68" spans="3:34">
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30"/>
-    </row>
-    <row r="69" spans="3:34">
-      <c r="C69" s="30"/>
-      <c r="D69" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="30"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-    </row>
-    <row r="70" spans="3:34">
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30"/>
-    </row>
-    <row r="71" spans="3:34">
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="338" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="293" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="294"/>
-      <c r="H71" s="294"/>
-      <c r="I71" s="295"/>
-      <c r="J71" s="293" t="s">
-        <v>25</v>
-      </c>
-      <c r="K71" s="294"/>
-      <c r="L71" s="294"/>
-      <c r="M71" s="295"/>
-      <c r="N71" s="340" t="s">
-        <v>26</v>
-      </c>
-      <c r="O71" s="340"/>
-      <c r="P71" s="340"/>
-      <c r="Q71" s="340"/>
-      <c r="R71" s="340"/>
-      <c r="S71" s="340"/>
-      <c r="T71" s="340"/>
-      <c r="U71" s="340"/>
-      <c r="V71" s="340"/>
-      <c r="W71" s="293" t="s">
-        <v>34</v>
-      </c>
-      <c r="X71" s="294"/>
-      <c r="Y71" s="294"/>
-      <c r="Z71" s="294"/>
-      <c r="AA71" s="294"/>
-      <c r="AB71" s="294"/>
-      <c r="AC71" s="295"/>
-      <c r="AD71" s="293" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE71" s="294"/>
-      <c r="AF71" s="294"/>
-      <c r="AG71" s="294"/>
-      <c r="AH71" s="295"/>
-    </row>
-    <row r="72" spans="3:34">
-      <c r="C72" s="30"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="339"/>
-      <c r="F72" s="296"/>
-      <c r="G72" s="297"/>
-      <c r="H72" s="297"/>
-      <c r="I72" s="298"/>
-      <c r="J72" s="296"/>
-      <c r="K72" s="297"/>
-      <c r="L72" s="297"/>
-      <c r="M72" s="298"/>
-      <c r="N72" s="340" t="s">
-        <v>29</v>
-      </c>
-      <c r="O72" s="340"/>
-      <c r="P72" s="340"/>
-      <c r="Q72" s="340"/>
-      <c r="R72" s="340"/>
-      <c r="S72" s="269" t="s">
-        <v>30</v>
-      </c>
-      <c r="T72" s="269"/>
-      <c r="U72" s="269"/>
-      <c r="V72" s="269"/>
-      <c r="W72" s="296"/>
-      <c r="X72" s="297"/>
-      <c r="Y72" s="297"/>
-      <c r="Z72" s="297"/>
-      <c r="AA72" s="297"/>
-      <c r="AB72" s="297"/>
-      <c r="AC72" s="298"/>
-      <c r="AD72" s="296"/>
-      <c r="AE72" s="297"/>
-      <c r="AF72" s="297"/>
-      <c r="AG72" s="297"/>
-      <c r="AH72" s="298"/>
-    </row>
-    <row r="73" spans="3:34">
-      <c r="C73" s="30"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="41">
-        <v>1</v>
-      </c>
-      <c r="F73" s="290" t="s">
+      <c r="K69" s="288"/>
+      <c r="L69" s="288"/>
+      <c r="M69" s="289"/>
+      <c r="N69" s="274" t="s">
+        <v>84</v>
+      </c>
+      <c r="O69" s="275"/>
+      <c r="P69" s="275"/>
+      <c r="Q69" s="275"/>
+      <c r="R69" s="275"/>
+      <c r="S69" s="276" t="s">
         <v>87</v>
       </c>
-      <c r="G73" s="291"/>
-      <c r="H73" s="291"/>
-      <c r="I73" s="292"/>
-      <c r="J73" s="290" t="s">
-        <v>84</v>
-      </c>
-      <c r="K73" s="291"/>
-      <c r="L73" s="291"/>
-      <c r="M73" s="292"/>
-      <c r="N73" s="282" t="s">
-        <v>90</v>
-      </c>
-      <c r="O73" s="280"/>
-      <c r="P73" s="280"/>
-      <c r="Q73" s="280"/>
-      <c r="R73" s="280"/>
-      <c r="S73" s="283" t="s">
-        <v>91</v>
-      </c>
-      <c r="T73" s="281"/>
-      <c r="U73" s="281"/>
-      <c r="V73" s="281"/>
-      <c r="W73" s="272"/>
-      <c r="X73" s="273"/>
-      <c r="Y73" s="273"/>
-      <c r="Z73" s="273"/>
-      <c r="AA73" s="273"/>
-      <c r="AB73" s="273"/>
-      <c r="AC73" s="274"/>
-      <c r="AD73" s="272"/>
-      <c r="AE73" s="273"/>
-      <c r="AF73" s="273"/>
-      <c r="AG73" s="273"/>
-      <c r="AH73" s="274"/>
-    </row>
-    <row r="74" spans="3:34">
-      <c r="C74" s="30"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="41">
-        <v>2</v>
-      </c>
-      <c r="F74" s="290" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="291"/>
-      <c r="H74" s="291"/>
-      <c r="I74" s="292"/>
-      <c r="J74" s="290" t="s">
-        <v>85</v>
-      </c>
-      <c r="K74" s="291"/>
-      <c r="L74" s="291"/>
-      <c r="M74" s="292"/>
-      <c r="N74" s="282" t="s">
-        <v>90</v>
-      </c>
-      <c r="O74" s="280"/>
-      <c r="P74" s="280"/>
-      <c r="Q74" s="280"/>
-      <c r="R74" s="280"/>
-      <c r="S74" s="283" t="s">
-        <v>92</v>
-      </c>
-      <c r="T74" s="281"/>
-      <c r="U74" s="281"/>
-      <c r="V74" s="281"/>
-      <c r="W74" s="272"/>
-      <c r="X74" s="273"/>
-      <c r="Y74" s="273"/>
-      <c r="Z74" s="273"/>
-      <c r="AA74" s="273"/>
-      <c r="AB74" s="273"/>
-      <c r="AC74" s="274"/>
-      <c r="AD74" s="272"/>
-      <c r="AE74" s="273"/>
-      <c r="AF74" s="273"/>
-      <c r="AG74" s="273"/>
-      <c r="AH74" s="274"/>
-    </row>
-    <row r="75" spans="3:34">
-      <c r="C75" s="30"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="41">
-        <v>3</v>
-      </c>
-      <c r="F75" s="290" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" s="291"/>
-      <c r="H75" s="291"/>
-      <c r="I75" s="292"/>
-      <c r="J75" s="290" t="s">
-        <v>86</v>
-      </c>
-      <c r="K75" s="291"/>
-      <c r="L75" s="291"/>
-      <c r="M75" s="292"/>
-      <c r="N75" s="282" t="s">
-        <v>90</v>
-      </c>
-      <c r="O75" s="280"/>
-      <c r="P75" s="280"/>
-      <c r="Q75" s="280"/>
-      <c r="R75" s="280"/>
-      <c r="S75" s="283" t="s">
-        <v>93</v>
-      </c>
-      <c r="T75" s="281"/>
-      <c r="U75" s="281"/>
-      <c r="V75" s="281"/>
-      <c r="W75" s="272"/>
-      <c r="X75" s="273"/>
-      <c r="Y75" s="273"/>
-      <c r="Z75" s="273"/>
-      <c r="AA75" s="273"/>
-      <c r="AB75" s="273"/>
-      <c r="AC75" s="274"/>
-      <c r="AD75" s="272"/>
-      <c r="AE75" s="273"/>
-      <c r="AF75" s="273"/>
-      <c r="AG75" s="273"/>
-      <c r="AH75" s="274"/>
-    </row>
-    <row r="76" spans="3:34">
-      <c r="C76" s="30"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="41">
-        <v>4</v>
-      </c>
-      <c r="F76" s="290"/>
-      <c r="G76" s="291"/>
-      <c r="H76" s="291"/>
-      <c r="I76" s="292"/>
-      <c r="J76" s="290"/>
-      <c r="K76" s="291"/>
-      <c r="L76" s="291"/>
-      <c r="M76" s="292"/>
-      <c r="N76" s="279"/>
-      <c r="O76" s="280"/>
-      <c r="P76" s="280"/>
-      <c r="Q76" s="280"/>
-      <c r="R76" s="280"/>
-      <c r="S76" s="281"/>
-      <c r="T76" s="281"/>
-      <c r="U76" s="281"/>
-      <c r="V76" s="281"/>
-      <c r="W76" s="272"/>
-      <c r="X76" s="273"/>
-      <c r="Y76" s="273"/>
-      <c r="Z76" s="273"/>
-      <c r="AA76" s="273"/>
-      <c r="AB76" s="273"/>
-      <c r="AC76" s="274"/>
-      <c r="AD76" s="272"/>
-      <c r="AE76" s="273"/>
-      <c r="AF76" s="273"/>
-      <c r="AG76" s="273"/>
-      <c r="AH76" s="274"/>
-    </row>
-    <row r="77" spans="3:34">
-      <c r="C77" s="30"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="41">
-        <v>5</v>
-      </c>
-      <c r="F77" s="290"/>
-      <c r="G77" s="291"/>
-      <c r="H77" s="291"/>
-      <c r="I77" s="292"/>
-      <c r="J77" s="290"/>
-      <c r="K77" s="291"/>
-      <c r="L77" s="291"/>
-      <c r="M77" s="292"/>
-      <c r="N77" s="279"/>
-      <c r="O77" s="280"/>
-      <c r="P77" s="280"/>
-      <c r="Q77" s="280"/>
-      <c r="R77" s="280"/>
-      <c r="S77" s="281"/>
-      <c r="T77" s="281"/>
-      <c r="U77" s="281"/>
-      <c r="V77" s="281"/>
-      <c r="W77" s="272"/>
-      <c r="X77" s="273"/>
-      <c r="Y77" s="273"/>
-      <c r="Z77" s="273"/>
-      <c r="AA77" s="273"/>
-      <c r="AB77" s="273"/>
-      <c r="AC77" s="274"/>
-      <c r="AD77" s="272"/>
-      <c r="AE77" s="273"/>
-      <c r="AF77" s="273"/>
-      <c r="AG77" s="273"/>
-      <c r="AH77" s="274"/>
+      <c r="T69" s="277"/>
+      <c r="U69" s="277"/>
+      <c r="V69" s="277"/>
+      <c r="W69" s="278"/>
+      <c r="X69" s="279"/>
+      <c r="Y69" s="279"/>
+      <c r="Z69" s="279"/>
+      <c r="AA69" s="279"/>
+      <c r="AB69" s="279"/>
+      <c r="AC69" s="280"/>
+      <c r="AD69" s="278"/>
+      <c r="AE69" s="279"/>
+      <c r="AF69" s="279"/>
+      <c r="AG69" s="279"/>
+      <c r="AH69" s="280"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:S54"/>
-    <mergeCell ref="T54:AD54"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AD37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T53:AD53"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="O66:AH66"/>
+  <mergeCells count="91">
+    <mergeCell ref="O60:AH60"/>
     <mergeCell ref="V10:AH10"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="K11:N11"/>
@@ -14300,15 +14316,10 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="N71:V71"/>
-    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="N66:R66"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="D8:D9"/>
@@ -14329,13 +14340,13 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="E8:J9"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="W71:AC72"/>
-    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="W65:AC66"/>
+    <mergeCell ref="AD65:AH66"/>
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="L33:U33"/>
     <mergeCell ref="V33:X33"/>
@@ -14343,59 +14354,53 @@
     <mergeCell ref="AC33:AF33"/>
     <mergeCell ref="Y34:AB34"/>
     <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="E44:N46"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="O39:X39"/>
+    <mergeCell ref="E40:N42"/>
+    <mergeCell ref="O40:X40"/>
+    <mergeCell ref="O41:X41"/>
+    <mergeCell ref="O42:X42"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="L34:U34"/>
     <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J71:M72"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J65:M66"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="N65:V65"/>
+    <mergeCell ref="S66:V66"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="AD77:AH77"/>
     <mergeCell ref="H17:AH17"/>
     <mergeCell ref="H18:AH18"/>
     <mergeCell ref="H19:AH19"/>
     <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="W75:AC75"/>
-    <mergeCell ref="W76:AC76"/>
-    <mergeCell ref="W77:AC77"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="E47:X47"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="W73:AC73"/>
-    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:AC69"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="E43:X43"/>
+    <mergeCell ref="E39:N39"/>
+    <mergeCell ref="W67:AC67"/>
+    <mergeCell ref="W68:AC68"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="N67:R67"/>
+    <mergeCell ref="S67:V67"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"I,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14407,13 +14412,13 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="28" max="34" man="1"/>
-    <brk id="60" max="34" man="1"/>
+    <brk id="54" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14421,44 +14426,44 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="95" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="96" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="96" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="96" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="96" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="96" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="96" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="96" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="96" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4698AB0-B6CD-4B4C-A0FC-5A68FDCDAE10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD97ED-1F87-48E8-B398-AA0EFD4C1386}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,9 +915,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>/client/:client_id</t>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1097,6 +1094,10 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/client/:clientId</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1898,6 +1899,96 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2009,80 +2100,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2120,41 +2172,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2174,34 +2217,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2210,55 +2232,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,12 +2305,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2396,98 +2427,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6270,7 +6271,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="37"/>
       <c r="J23" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -6924,57 +6925,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="176" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="194" t="s">
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="196" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="169">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="199">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="170"/>
-      <c r="AI1" s="171"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6982,53 +6983,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="176" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="228"/>
+      <c r="U2" s="228"/>
+      <c r="V2" s="228"/>
+      <c r="W2" s="228"/>
+      <c r="X2" s="228"/>
+      <c r="Y2" s="228"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="209" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="169">
+      <c r="AD2" s="210"/>
+      <c r="AE2" s="210"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="199">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="171"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -7036,45 +7037,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="176" t="s">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="171"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="231"/>
+      <c r="W3" s="231"/>
+      <c r="X3" s="231"/>
+      <c r="Y3" s="231"/>
+      <c r="Z3" s="232"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7111,1204 +7112,1048 @@
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="172" t="s">
+      <c r="C7" s="203"/>
+      <c r="D7" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="172" t="s">
+      <c r="E7" s="204"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="175" t="s">
+      <c r="H7" s="204"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="172" t="s">
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="173"/>
-      <c r="AF7" s="172" t="s">
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="204"/>
+      <c r="U7" s="204"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="204"/>
+      <c r="X7" s="204"/>
+      <c r="Y7" s="204"/>
+      <c r="Z7" s="204"/>
+      <c r="AA7" s="204"/>
+      <c r="AB7" s="204"/>
+      <c r="AC7" s="204"/>
+      <c r="AD7" s="204"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="173"/>
+      <c r="AG7" s="204"/>
+      <c r="AH7" s="204"/>
+      <c r="AI7" s="203"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="215" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217">
+      <c r="B8" s="183" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="184"/>
+      <c r="D8" s="185">
         <v>43718</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="188" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="189"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="224" t="s">
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="193" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="222"/>
-      <c r="L8" s="222"/>
-      <c r="M8" s="222"/>
-      <c r="N8" s="222"/>
-      <c r="O8" s="222"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="365" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="225"/>
-      <c r="S8" s="225"/>
-      <c r="T8" s="225"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="225"/>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="225"/>
-      <c r="Z8" s="225"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="225"/>
-      <c r="AE8" s="226"/>
-      <c r="AF8" s="224" t="s">
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="195"/>
+      <c r="AF8" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="AG8" s="222"/>
-      <c r="AH8" s="222"/>
-      <c r="AI8" s="223"/>
+      <c r="AG8" s="191"/>
+      <c r="AH8" s="191"/>
+      <c r="AI8" s="192"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="118">
         <v>2</v>
       </c>
-      <c r="B9" s="363" t="s">
+      <c r="B9" s="179" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168">
+        <v>44825</v>
+      </c>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205">
-        <v>44825</v>
-      </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="364" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="273" t="s">
+      <c r="H9" s="171"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="181" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="181" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="273" t="s">
-        <v>146</v>
-      </c>
-      <c r="R9" s="213"/>
-      <c r="S9" s="213"/>
-      <c r="T9" s="213"/>
-      <c r="U9" s="213"/>
-      <c r="V9" s="213"/>
-      <c r="W9" s="213"/>
-      <c r="X9" s="213"/>
-      <c r="Y9" s="213"/>
-      <c r="Z9" s="213"/>
-      <c r="AA9" s="213"/>
-      <c r="AB9" s="213"/>
-      <c r="AC9" s="213"/>
-      <c r="AD9" s="213"/>
-      <c r="AE9" s="214"/>
-      <c r="AF9" s="366" t="s">
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="176"/>
+      <c r="Z9" s="176"/>
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="210"/>
-      <c r="AH9" s="210"/>
-      <c r="AI9" s="211"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="174"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="118"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="213"/>
-      <c r="S10" s="213"/>
-      <c r="T10" s="213"/>
-      <c r="U10" s="213"/>
-      <c r="V10" s="213"/>
-      <c r="W10" s="213"/>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="213"/>
-      <c r="Z10" s="213"/>
-      <c r="AA10" s="213"/>
-      <c r="AB10" s="213"/>
-      <c r="AC10" s="213"/>
-      <c r="AD10" s="213"/>
-      <c r="AE10" s="214"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="210"/>
-      <c r="AI10" s="211"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="174"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="118"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="212"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
-      <c r="T11" s="213"/>
-      <c r="U11" s="213"/>
-      <c r="V11" s="213"/>
-      <c r="W11" s="213"/>
-      <c r="X11" s="213"/>
-      <c r="Y11" s="213"/>
-      <c r="Z11" s="213"/>
-      <c r="AA11" s="213"/>
-      <c r="AB11" s="213"/>
-      <c r="AC11" s="213"/>
-      <c r="AD11" s="213"/>
-      <c r="AE11" s="214"/>
-      <c r="AF11" s="209"/>
-      <c r="AG11" s="210"/>
-      <c r="AH11" s="210"/>
-      <c r="AI11" s="211"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="176"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="174"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="118"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="211"/>
-      <c r="Q12" s="212"/>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213"/>
-      <c r="T12" s="213"/>
-      <c r="U12" s="213"/>
-      <c r="V12" s="213"/>
-      <c r="W12" s="213"/>
-      <c r="X12" s="213"/>
-      <c r="Y12" s="213"/>
-      <c r="Z12" s="213"/>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="213"/>
-      <c r="AC12" s="213"/>
-      <c r="AD12" s="213"/>
-      <c r="AE12" s="214"/>
-      <c r="AF12" s="209"/>
-      <c r="AG12" s="210"/>
-      <c r="AH12" s="210"/>
-      <c r="AI12" s="211"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="176"/>
+      <c r="AA12" s="176"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="174"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="118"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="211"/>
-      <c r="Q13" s="212"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
-      <c r="T13" s="213"/>
-      <c r="U13" s="213"/>
-      <c r="V13" s="213"/>
-      <c r="W13" s="213"/>
-      <c r="X13" s="213"/>
-      <c r="Y13" s="213"/>
-      <c r="Z13" s="213"/>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="213"/>
-      <c r="AC13" s="213"/>
-      <c r="AD13" s="213"/>
-      <c r="AE13" s="214"/>
-      <c r="AF13" s="209"/>
-      <c r="AG13" s="210"/>
-      <c r="AH13" s="210"/>
-      <c r="AI13" s="211"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="176"/>
+      <c r="AB13" s="176"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="174"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="118"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="212"/>
-      <c r="R14" s="213"/>
-      <c r="S14" s="213"/>
-      <c r="T14" s="213"/>
-      <c r="U14" s="213"/>
-      <c r="V14" s="213"/>
-      <c r="W14" s="213"/>
-      <c r="X14" s="213"/>
-      <c r="Y14" s="213"/>
-      <c r="Z14" s="213"/>
-      <c r="AA14" s="213"/>
-      <c r="AB14" s="213"/>
-      <c r="AC14" s="213"/>
-      <c r="AD14" s="213"/>
-      <c r="AE14" s="214"/>
-      <c r="AF14" s="209"/>
-      <c r="AG14" s="210"/>
-      <c r="AH14" s="210"/>
-      <c r="AI14" s="211"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="176"/>
+      <c r="Y14" s="176"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="176"/>
+      <c r="AB14" s="176"/>
+      <c r="AC14" s="176"/>
+      <c r="AD14" s="176"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="174"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="118"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
-      <c r="M15" s="210"/>
-      <c r="N15" s="210"/>
-      <c r="O15" s="210"/>
-      <c r="P15" s="211"/>
-      <c r="Q15" s="212"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
-      <c r="T15" s="213"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213"/>
-      <c r="W15" s="213"/>
-      <c r="X15" s="213"/>
-      <c r="Y15" s="213"/>
-      <c r="Z15" s="213"/>
-      <c r="AA15" s="213"/>
-      <c r="AB15" s="213"/>
-      <c r="AC15" s="213"/>
-      <c r="AD15" s="213"/>
-      <c r="AE15" s="214"/>
-      <c r="AF15" s="209"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="211"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="174"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="118"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210"/>
-      <c r="M16" s="210"/>
-      <c r="N16" s="210"/>
-      <c r="O16" s="210"/>
-      <c r="P16" s="211"/>
-      <c r="Q16" s="212"/>
-      <c r="R16" s="213"/>
-      <c r="S16" s="213"/>
-      <c r="T16" s="213"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
-      <c r="W16" s="213"/>
-      <c r="X16" s="213"/>
-      <c r="Y16" s="213"/>
-      <c r="Z16" s="213"/>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="213"/>
-      <c r="AC16" s="213"/>
-      <c r="AD16" s="213"/>
-      <c r="AE16" s="214"/>
-      <c r="AF16" s="209"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="210"/>
-      <c r="AI16" s="211"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="176"/>
+      <c r="Y16" s="176"/>
+      <c r="Z16" s="176"/>
+      <c r="AA16" s="176"/>
+      <c r="AB16" s="176"/>
+      <c r="AC16" s="176"/>
+      <c r="AD16" s="176"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="174"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="118"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
-      <c r="M17" s="210"/>
-      <c r="N17" s="210"/>
-      <c r="O17" s="210"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="212"/>
-      <c r="R17" s="213"/>
-      <c r="S17" s="213"/>
-      <c r="T17" s="213"/>
-      <c r="U17" s="213"/>
-      <c r="V17" s="213"/>
-      <c r="W17" s="213"/>
-      <c r="X17" s="213"/>
-      <c r="Y17" s="213"/>
-      <c r="Z17" s="213"/>
-      <c r="AA17" s="213"/>
-      <c r="AB17" s="213"/>
-      <c r="AC17" s="213"/>
-      <c r="AD17" s="213"/>
-      <c r="AE17" s="214"/>
-      <c r="AF17" s="209"/>
-      <c r="AG17" s="210"/>
-      <c r="AH17" s="210"/>
-      <c r="AI17" s="211"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="176"/>
+      <c r="Y17" s="176"/>
+      <c r="Z17" s="176"/>
+      <c r="AA17" s="176"/>
+      <c r="AB17" s="176"/>
+      <c r="AC17" s="176"/>
+      <c r="AD17" s="176"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="118"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="212"/>
-      <c r="R18" s="213"/>
-      <c r="S18" s="213"/>
-      <c r="T18" s="213"/>
-      <c r="U18" s="213"/>
-      <c r="V18" s="213"/>
-      <c r="W18" s="213"/>
-      <c r="X18" s="213"/>
-      <c r="Y18" s="213"/>
-      <c r="Z18" s="213"/>
-      <c r="AA18" s="213"/>
-      <c r="AB18" s="213"/>
-      <c r="AC18" s="213"/>
-      <c r="AD18" s="213"/>
-      <c r="AE18" s="214"/>
-      <c r="AF18" s="209"/>
-      <c r="AG18" s="210"/>
-      <c r="AH18" s="210"/>
-      <c r="AI18" s="211"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="174"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="118"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-      <c r="O19" s="210"/>
-      <c r="P19" s="211"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="213"/>
-      <c r="S19" s="213"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="213"/>
-      <c r="V19" s="213"/>
-      <c r="W19" s="213"/>
-      <c r="X19" s="213"/>
-      <c r="Y19" s="213"/>
-      <c r="Z19" s="213"/>
-      <c r="AA19" s="213"/>
-      <c r="AB19" s="213"/>
-      <c r="AC19" s="213"/>
-      <c r="AD19" s="213"/>
-      <c r="AE19" s="214"/>
-      <c r="AF19" s="209"/>
-      <c r="AG19" s="210"/>
-      <c r="AH19" s="210"/>
-      <c r="AI19" s="211"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="176"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
+      <c r="AD19" s="176"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="174"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="118"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211"/>
-      <c r="Q20" s="212"/>
-      <c r="R20" s="213"/>
-      <c r="S20" s="213"/>
-      <c r="T20" s="213"/>
-      <c r="U20" s="213"/>
-      <c r="V20" s="213"/>
-      <c r="W20" s="213"/>
-      <c r="X20" s="213"/>
-      <c r="Y20" s="213"/>
-      <c r="Z20" s="213"/>
-      <c r="AA20" s="213"/>
-      <c r="AB20" s="213"/>
-      <c r="AC20" s="213"/>
-      <c r="AD20" s="213"/>
-      <c r="AE20" s="214"/>
-      <c r="AF20" s="209"/>
-      <c r="AG20" s="210"/>
-      <c r="AH20" s="210"/>
-      <c r="AI20" s="211"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="176"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="176"/>
+      <c r="Y20" s="176"/>
+      <c r="Z20" s="176"/>
+      <c r="AA20" s="176"/>
+      <c r="AB20" s="176"/>
+      <c r="AC20" s="176"/>
+      <c r="AD20" s="176"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="174"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="118"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="210"/>
-      <c r="M21" s="210"/>
-      <c r="N21" s="210"/>
-      <c r="O21" s="210"/>
-      <c r="P21" s="211"/>
-      <c r="Q21" s="212"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="213"/>
-      <c r="V21" s="213"/>
-      <c r="W21" s="213"/>
-      <c r="X21" s="213"/>
-      <c r="Y21" s="213"/>
-      <c r="Z21" s="213"/>
-      <c r="AA21" s="213"/>
-      <c r="AB21" s="213"/>
-      <c r="AC21" s="213"/>
-      <c r="AD21" s="213"/>
-      <c r="AE21" s="214"/>
-      <c r="AF21" s="209"/>
-      <c r="AG21" s="210"/>
-      <c r="AH21" s="210"/>
-      <c r="AI21" s="211"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="176"/>
+      <c r="Y21" s="176"/>
+      <c r="Z21" s="176"/>
+      <c r="AA21" s="176"/>
+      <c r="AB21" s="176"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="176"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="174"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="118"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
-      <c r="P22" s="211"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="213"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="213"/>
-      <c r="V22" s="213"/>
-      <c r="W22" s="213"/>
-      <c r="X22" s="213"/>
-      <c r="Y22" s="213"/>
-      <c r="Z22" s="213"/>
-      <c r="AA22" s="213"/>
-      <c r="AB22" s="213"/>
-      <c r="AC22" s="213"/>
-      <c r="AD22" s="213"/>
-      <c r="AE22" s="214"/>
-      <c r="AF22" s="209"/>
-      <c r="AG22" s="210"/>
-      <c r="AH22" s="210"/>
-      <c r="AI22" s="211"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="176"/>
+      <c r="X22" s="176"/>
+      <c r="Y22" s="176"/>
+      <c r="Z22" s="176"/>
+      <c r="AA22" s="176"/>
+      <c r="AB22" s="176"/>
+      <c r="AC22" s="176"/>
+      <c r="AD22" s="176"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="172"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="174"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="118"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
-      <c r="O23" s="210"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="212"/>
-      <c r="R23" s="213"/>
-      <c r="S23" s="213"/>
-      <c r="T23" s="213"/>
-      <c r="U23" s="213"/>
-      <c r="V23" s="213"/>
-      <c r="W23" s="213"/>
-      <c r="X23" s="213"/>
-      <c r="Y23" s="213"/>
-      <c r="Z23" s="213"/>
-      <c r="AA23" s="213"/>
-      <c r="AB23" s="213"/>
-      <c r="AC23" s="213"/>
-      <c r="AD23" s="213"/>
-      <c r="AE23" s="214"/>
-      <c r="AF23" s="209"/>
-      <c r="AG23" s="210"/>
-      <c r="AH23" s="210"/>
-      <c r="AI23" s="211"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="176"/>
+      <c r="Y23" s="176"/>
+      <c r="Z23" s="176"/>
+      <c r="AA23" s="176"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="176"/>
+      <c r="AD23" s="176"/>
+      <c r="AE23" s="177"/>
+      <c r="AF23" s="172"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="174"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="118"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="210"/>
-      <c r="N24" s="210"/>
-      <c r="O24" s="210"/>
-      <c r="P24" s="211"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="214"/>
-      <c r="AF24" s="209"/>
-      <c r="AG24" s="210"/>
-      <c r="AH24" s="210"/>
-      <c r="AI24" s="211"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="176"/>
+      <c r="Y24" s="176"/>
+      <c r="Z24" s="176"/>
+      <c r="AA24" s="176"/>
+      <c r="AB24" s="176"/>
+      <c r="AC24" s="176"/>
+      <c r="AD24" s="176"/>
+      <c r="AE24" s="177"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="174"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="118"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
-      <c r="P25" s="211"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="213"/>
-      <c r="S25" s="213"/>
-      <c r="T25" s="213"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="213"/>
-      <c r="W25" s="213"/>
-      <c r="X25" s="213"/>
-      <c r="Y25" s="213"/>
-      <c r="Z25" s="213"/>
-      <c r="AA25" s="213"/>
-      <c r="AB25" s="213"/>
-      <c r="AC25" s="213"/>
-      <c r="AD25" s="213"/>
-      <c r="AE25" s="214"/>
-      <c r="AF25" s="209"/>
-      <c r="AG25" s="210"/>
-      <c r="AH25" s="210"/>
-      <c r="AI25" s="211"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
+      <c r="V25" s="176"/>
+      <c r="W25" s="176"/>
+      <c r="X25" s="176"/>
+      <c r="Y25" s="176"/>
+      <c r="Z25" s="176"/>
+      <c r="AA25" s="176"/>
+      <c r="AB25" s="176"/>
+      <c r="AC25" s="176"/>
+      <c r="AD25" s="176"/>
+      <c r="AE25" s="177"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="174"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="118"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
-      <c r="P26" s="211"/>
-      <c r="Q26" s="212"/>
-      <c r="R26" s="213"/>
-      <c r="S26" s="213"/>
-      <c r="T26" s="213"/>
-      <c r="U26" s="213"/>
-      <c r="V26" s="213"/>
-      <c r="W26" s="213"/>
-      <c r="X26" s="213"/>
-      <c r="Y26" s="213"/>
-      <c r="Z26" s="213"/>
-      <c r="AA26" s="213"/>
-      <c r="AB26" s="213"/>
-      <c r="AC26" s="213"/>
-      <c r="AD26" s="213"/>
-      <c r="AE26" s="214"/>
-      <c r="AF26" s="209"/>
-      <c r="AG26" s="210"/>
-      <c r="AH26" s="210"/>
-      <c r="AI26" s="211"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="176"/>
+      <c r="Y26" s="176"/>
+      <c r="Z26" s="176"/>
+      <c r="AA26" s="176"/>
+      <c r="AB26" s="176"/>
+      <c r="AC26" s="176"/>
+      <c r="AD26" s="176"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="174"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="118"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="210"/>
-      <c r="O27" s="210"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="212"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="213"/>
-      <c r="T27" s="213"/>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="213"/>
-      <c r="Z27" s="213"/>
-      <c r="AA27" s="213"/>
-      <c r="AB27" s="213"/>
-      <c r="AC27" s="213"/>
-      <c r="AD27" s="213"/>
-      <c r="AE27" s="214"/>
-      <c r="AF27" s="209"/>
-      <c r="AG27" s="210"/>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="211"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
+      <c r="V27" s="176"/>
+      <c r="W27" s="176"/>
+      <c r="X27" s="176"/>
+      <c r="Y27" s="176"/>
+      <c r="Z27" s="176"/>
+      <c r="AA27" s="176"/>
+      <c r="AB27" s="176"/>
+      <c r="AC27" s="176"/>
+      <c r="AD27" s="176"/>
+      <c r="AE27" s="177"/>
+      <c r="AF27" s="172"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="174"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="118"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="210"/>
-      <c r="N28" s="210"/>
-      <c r="O28" s="210"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="212"/>
-      <c r="R28" s="213"/>
-      <c r="S28" s="213"/>
-      <c r="T28" s="213"/>
-      <c r="U28" s="213"/>
-      <c r="V28" s="213"/>
-      <c r="W28" s="213"/>
-      <c r="X28" s="213"/>
-      <c r="Y28" s="213"/>
-      <c r="Z28" s="213"/>
-      <c r="AA28" s="213"/>
-      <c r="AB28" s="213"/>
-      <c r="AC28" s="213"/>
-      <c r="AD28" s="213"/>
-      <c r="AE28" s="214"/>
-      <c r="AF28" s="209"/>
-      <c r="AG28" s="210"/>
-      <c r="AH28" s="210"/>
-      <c r="AI28" s="211"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="176"/>
+      <c r="Z28" s="176"/>
+      <c r="AA28" s="176"/>
+      <c r="AB28" s="176"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="176"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="174"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="118"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="205"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="210"/>
-      <c r="N29" s="210"/>
-      <c r="O29" s="210"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="212"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="213"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="213"/>
-      <c r="X29" s="213"/>
-      <c r="Y29" s="213"/>
-      <c r="Z29" s="213"/>
-      <c r="AA29" s="213"/>
-      <c r="AB29" s="213"/>
-      <c r="AC29" s="213"/>
-      <c r="AD29" s="213"/>
-      <c r="AE29" s="214"/>
-      <c r="AF29" s="209"/>
-      <c r="AG29" s="210"/>
-      <c r="AH29" s="210"/>
-      <c r="AI29" s="211"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="176"/>
+      <c r="Y29" s="176"/>
+      <c r="Z29" s="176"/>
+      <c r="AA29" s="176"/>
+      <c r="AB29" s="176"/>
+      <c r="AC29" s="176"/>
+      <c r="AD29" s="176"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="174"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="118"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="210"/>
-      <c r="O30" s="210"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="213"/>
-      <c r="S30" s="213"/>
-      <c r="T30" s="213"/>
-      <c r="U30" s="213"/>
-      <c r="V30" s="213"/>
-      <c r="W30" s="213"/>
-      <c r="X30" s="213"/>
-      <c r="Y30" s="213"/>
-      <c r="Z30" s="213"/>
-      <c r="AA30" s="213"/>
-      <c r="AB30" s="213"/>
-      <c r="AC30" s="213"/>
-      <c r="AD30" s="213"/>
-      <c r="AE30" s="214"/>
-      <c r="AF30" s="209"/>
-      <c r="AG30" s="210"/>
-      <c r="AH30" s="210"/>
-      <c r="AI30" s="211"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="176"/>
+      <c r="Y30" s="176"/>
+      <c r="Z30" s="176"/>
+      <c r="AA30" s="176"/>
+      <c r="AB30" s="176"/>
+      <c r="AC30" s="176"/>
+      <c r="AD30" s="176"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="172"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="174"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="118"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="210"/>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="212"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="213"/>
-      <c r="X31" s="213"/>
-      <c r="Y31" s="213"/>
-      <c r="Z31" s="213"/>
-      <c r="AA31" s="213"/>
-      <c r="AB31" s="213"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
-      <c r="AE31" s="214"/>
-      <c r="AF31" s="209"/>
-      <c r="AG31" s="210"/>
-      <c r="AH31" s="210"/>
-      <c r="AI31" s="211"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="176"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="176"/>
+      <c r="X31" s="176"/>
+      <c r="Y31" s="176"/>
+      <c r="Z31" s="176"/>
+      <c r="AA31" s="176"/>
+      <c r="AB31" s="176"/>
+      <c r="AC31" s="176"/>
+      <c r="AD31" s="176"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="172"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="174"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="118"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="210"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="212"/>
-      <c r="R32" s="213"/>
-      <c r="S32" s="213"/>
-      <c r="T32" s="213"/>
-      <c r="U32" s="213"/>
-      <c r="V32" s="213"/>
-      <c r="W32" s="213"/>
-      <c r="X32" s="213"/>
-      <c r="Y32" s="213"/>
-      <c r="Z32" s="213"/>
-      <c r="AA32" s="213"/>
-      <c r="AB32" s="213"/>
-      <c r="AC32" s="213"/>
-      <c r="AD32" s="213"/>
-      <c r="AE32" s="214"/>
-      <c r="AF32" s="209"/>
-      <c r="AG32" s="210"/>
-      <c r="AH32" s="210"/>
-      <c r="AI32" s="211"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="176"/>
+      <c r="Y32" s="176"/>
+      <c r="Z32" s="176"/>
+      <c r="AA32" s="176"/>
+      <c r="AB32" s="176"/>
+      <c r="AC32" s="176"/>
+      <c r="AD32" s="176"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="172"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="174"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="118"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="212"/>
-      <c r="R33" s="213"/>
-      <c r="S33" s="213"/>
-      <c r="T33" s="213"/>
-      <c r="U33" s="213"/>
-      <c r="V33" s="213"/>
-      <c r="W33" s="213"/>
-      <c r="X33" s="213"/>
-      <c r="Y33" s="213"/>
-      <c r="Z33" s="213"/>
-      <c r="AA33" s="213"/>
-      <c r="AB33" s="213"/>
-      <c r="AC33" s="213"/>
-      <c r="AD33" s="213"/>
-      <c r="AE33" s="214"/>
-      <c r="AF33" s="209"/>
-      <c r="AG33" s="210"/>
-      <c r="AH33" s="210"/>
-      <c r="AI33" s="211"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="176"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="176"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="176"/>
+      <c r="W33" s="176"/>
+      <c r="X33" s="176"/>
+      <c r="Y33" s="176"/>
+      <c r="Z33" s="176"/>
+      <c r="AA33" s="176"/>
+      <c r="AB33" s="176"/>
+      <c r="AC33" s="176"/>
+      <c r="AD33" s="176"/>
+      <c r="AE33" s="177"/>
+      <c r="AF33" s="172"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="174"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8332,6 +8177,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8488,157 +8489,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="176" t="str">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="231" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="228" t="s">
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="233">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="235"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="176" t="str">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="228" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="240">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="233">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
+      <c r="AH2" s="234"/>
+      <c r="AI2" s="235"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="176" t="str">
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="240" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
+      <c r="AH3" s="234"/>
+      <c r="AI3" s="235"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44"/>
@@ -10105,6 +10106,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10114,14 +10123,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10139,7 +10140,7 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10150,157 +10151,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="176" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="253">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="267">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="255"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="269"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="176" t="str">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="253">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="267">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="255"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="269"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="176" t="str">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="253" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="255"/>
+      <c r="AH3" s="268"/>
+      <c r="AI3" s="269"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
@@ -10456,92 +10457,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="258" t="s">
+      <c r="D8" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="256" t="s">
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="270" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="257"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="257"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="257"/>
-      <c r="AG8" s="257"/>
-      <c r="AH8" s="257"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="271"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="271"/>
+      <c r="Q8" s="271"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="271"/>
+      <c r="T8" s="271"/>
+      <c r="U8" s="271"/>
+      <c r="V8" s="271"/>
+      <c r="W8" s="271"/>
+      <c r="X8" s="271"/>
+      <c r="Y8" s="271"/>
+      <c r="Z8" s="271"/>
+      <c r="AA8" s="271"/>
+      <c r="AB8" s="271"/>
+      <c r="AC8" s="271"/>
+      <c r="AD8" s="271"/>
+      <c r="AE8" s="271"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="271"/>
+      <c r="AH8" s="271"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="252" t="s">
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="266" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="252"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="252"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="252"/>
-      <c r="P9" s="252"/>
-      <c r="Q9" s="252"/>
-      <c r="R9" s="252"/>
-      <c r="S9" s="252"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="252"/>
-      <c r="W9" s="252"/>
-      <c r="X9" s="252"/>
-      <c r="Y9" s="252"/>
-      <c r="Z9" s="252"/>
-      <c r="AA9" s="252"/>
-      <c r="AB9" s="252"/>
-      <c r="AC9" s="252"/>
-      <c r="AD9" s="252"/>
-      <c r="AE9" s="252"/>
-      <c r="AF9" s="252"/>
-      <c r="AG9" s="252"/>
-      <c r="AH9" s="252"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="266"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="266"/>
+      <c r="Q9" s="266"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="266"/>
+      <c r="AF9" s="266"/>
+      <c r="AG9" s="266"/>
+      <c r="AH9" s="266"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="261" t="s">
+      <c r="D10" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="263"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
+      <c r="G10" s="259"/>
       <c r="H10" s="103" t="s">
         <v>110</v>
       </c>
@@ -10576,172 +10577,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="258" t="s">
+      <c r="D11" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="256" t="s">
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="270" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="257"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="257"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="257"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
-      <c r="V11" s="257"/>
-      <c r="W11" s="257"/>
-      <c r="X11" s="257"/>
-      <c r="Y11" s="257"/>
-      <c r="Z11" s="257"/>
-      <c r="AA11" s="257"/>
-      <c r="AB11" s="257"/>
-      <c r="AC11" s="257"/>
-      <c r="AD11" s="257"/>
-      <c r="AE11" s="257"/>
-      <c r="AF11" s="257"/>
-      <c r="AG11" s="257"/>
-      <c r="AH11" s="257"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="271"/>
+      <c r="L11" s="271"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="271"/>
+      <c r="O11" s="271"/>
+      <c r="P11" s="271"/>
+      <c r="Q11" s="271"/>
+      <c r="R11" s="271"/>
+      <c r="S11" s="271"/>
+      <c r="T11" s="271"/>
+      <c r="U11" s="271"/>
+      <c r="V11" s="271"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="271"/>
+      <c r="AH11" s="271"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="258" t="s">
+      <c r="D12" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="259"/>
-      <c r="F12" s="259"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="252" t="s">
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="252"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="252"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="252"/>
-      <c r="Y12" s="252"/>
-      <c r="Z12" s="252"/>
-      <c r="AA12" s="252"/>
-      <c r="AB12" s="252"/>
-      <c r="AC12" s="252"/>
-      <c r="AD12" s="252"/>
-      <c r="AE12" s="252"/>
-      <c r="AF12" s="252"/>
-      <c r="AG12" s="252"/>
-      <c r="AH12" s="252"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="266"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="266"/>
+      <c r="Q12" s="266"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="266"/>
+      <c r="AF12" s="266"/>
+      <c r="AG12" s="266"/>
+      <c r="AH12" s="266"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="258" t="s">
+      <c r="D13" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="252" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="252"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="252"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="252"/>
-      <c r="Y13" s="252"/>
-      <c r="Z13" s="252"/>
-      <c r="AA13" s="252"/>
-      <c r="AB13" s="252"/>
-      <c r="AC13" s="252"/>
-      <c r="AD13" s="252"/>
-      <c r="AE13" s="252"/>
-      <c r="AF13" s="252"/>
-      <c r="AG13" s="252"/>
-      <c r="AH13" s="252"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="266" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="266"/>
+      <c r="J13" s="266"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="266"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="266"/>
+      <c r="Q13" s="266"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="266"/>
+      <c r="AF13" s="266"/>
+      <c r="AG13" s="266"/>
+      <c r="AH13" s="266"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="258" t="s">
+      <c r="D14" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="252" t="s">
+      <c r="E14" s="261"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="266" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="252"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="252"/>
-      <c r="W14" s="252"/>
-      <c r="X14" s="252"/>
-      <c r="Y14" s="252"/>
-      <c r="Z14" s="252"/>
-      <c r="AA14" s="252"/>
-      <c r="AB14" s="252"/>
-      <c r="AC14" s="252"/>
-      <c r="AD14" s="252"/>
-      <c r="AE14" s="252"/>
-      <c r="AF14" s="252"/>
-      <c r="AG14" s="252"/>
-      <c r="AH14" s="252"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="266"/>
+      <c r="M14" s="266"/>
+      <c r="N14" s="266"/>
+      <c r="O14" s="266"/>
+      <c r="P14" s="266"/>
+      <c r="Q14" s="266"/>
+      <c r="R14" s="266"/>
+      <c r="S14" s="266"/>
+      <c r="T14" s="266"/>
+      <c r="U14" s="266"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="266"/>
+      <c r="X14" s="266"/>
+      <c r="Y14" s="266"/>
+      <c r="Z14" s="266"/>
+      <c r="AA14" s="266"/>
+      <c r="AB14" s="266"/>
+      <c r="AC14" s="266"/>
+      <c r="AD14" s="266"/>
+      <c r="AE14" s="266"/>
+      <c r="AF14" s="266"/>
+      <c r="AG14" s="266"/>
+      <c r="AH14" s="266"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="258" t="s">
+      <c r="D15" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="260"/>
+      <c r="E15" s="261"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="262"/>
       <c r="H15" s="144" t="s">
         <v>111</v>
       </c>
@@ -10893,30 +10894,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="266"/>
-      <c r="K19" s="266"/>
-      <c r="L19" s="266"/>
-      <c r="M19" s="266"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="264"/>
-      <c r="P19" s="265"/>
-      <c r="Q19" s="265"/>
-      <c r="R19" s="265"/>
-      <c r="S19" s="265"/>
-      <c r="T19" s="265"/>
-      <c r="U19" s="265"/>
-      <c r="V19" s="265"/>
-      <c r="W19" s="265"/>
-      <c r="X19" s="265"/>
-      <c r="Y19" s="265"/>
-      <c r="Z19" s="265"/>
-      <c r="AA19" s="265"/>
-      <c r="AB19" s="265"/>
-      <c r="AC19" s="265"/>
-      <c r="AD19" s="265"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+      <c r="K19" s="265"/>
+      <c r="L19" s="265"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="265"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="264"/>
+      <c r="R19" s="264"/>
+      <c r="S19" s="264"/>
+      <c r="T19" s="264"/>
+      <c r="U19" s="264"/>
+      <c r="V19" s="264"/>
+      <c r="W19" s="264"/>
+      <c r="X19" s="264"/>
+      <c r="Y19" s="264"/>
+      <c r="Z19" s="264"/>
+      <c r="AA19" s="264"/>
+      <c r="AB19" s="264"/>
+      <c r="AC19" s="264"/>
+      <c r="AD19" s="264"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11368,15 +11369,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11393,14 +11393,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11429,157 +11430,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="176" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="253">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="267">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="255"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="269"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="176" t="str">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="253">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="267">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="255"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="269"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="176" t="str">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="253" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="255"/>
+      <c r="AH3" s="268"/>
+      <c r="AI3" s="269"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11589,17 +11590,11 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="J13" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11611,6 +11606,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11640,163 +11641,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="176" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="253">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="267">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="255"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="269"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="176" t="str">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="253">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="267">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="255"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="269"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="176" t="str">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="166" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="253" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="255"/>
+      <c r="AH3" s="268"/>
+      <c r="AI3" s="269"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11914,65 +11915,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="340" t="s">
+      <c r="D8" s="290" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="342" t="s">
+      <c r="E8" s="292" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="343"/>
-      <c r="G8" s="343"/>
-      <c r="H8" s="343"/>
-      <c r="I8" s="343"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="348" t="s">
+      <c r="F8" s="293"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="343"/>
-      <c r="M8" s="343"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="352" t="s">
+      <c r="L8" s="293"/>
+      <c r="M8" s="293"/>
+      <c r="N8" s="294"/>
+      <c r="O8" s="277" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="357" t="s">
+      <c r="P8" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="358"/>
-      <c r="R8" s="358"/>
-      <c r="S8" s="358"/>
-      <c r="T8" s="358"/>
-      <c r="U8" s="359"/>
-      <c r="V8" s="354" t="s">
+      <c r="Q8" s="283"/>
+      <c r="R8" s="283"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="284"/>
+      <c r="V8" s="279" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="354"/>
-      <c r="X8" s="354"/>
-      <c r="Y8" s="354"/>
-      <c r="Z8" s="354"/>
-      <c r="AA8" s="354"/>
-      <c r="AB8" s="354"/>
-      <c r="AC8" s="354"/>
-      <c r="AD8" s="354"/>
-      <c r="AE8" s="354"/>
-      <c r="AF8" s="354"/>
-      <c r="AG8" s="354"/>
-      <c r="AH8" s="354"/>
+      <c r="W8" s="279"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="279"/>
+      <c r="Z8" s="279"/>
+      <c r="AA8" s="279"/>
+      <c r="AB8" s="279"/>
+      <c r="AC8" s="279"/>
+      <c r="AD8" s="279"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="279"/>
+      <c r="AG8" s="279"/>
+      <c r="AH8" s="279"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="341"/>
-      <c r="E9" s="345"/>
-      <c r="F9" s="346"/>
-      <c r="G9" s="346"/>
-      <c r="H9" s="346"/>
-      <c r="I9" s="346"/>
-      <c r="J9" s="347"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="353"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="297"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="297"/>
+      <c r="O9" s="278"/>
       <c r="P9" s="90" t="s">
         <v>45</v>
       </c>
@@ -11985,23 +11986,23 @@
       <c r="S9" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="355" t="s">
+      <c r="T9" s="280" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="356"/>
-      <c r="V9" s="354"/>
-      <c r="W9" s="354"/>
-      <c r="X9" s="354"/>
-      <c r="Y9" s="354"/>
-      <c r="Z9" s="354"/>
-      <c r="AA9" s="354"/>
-      <c r="AB9" s="354"/>
-      <c r="AC9" s="354"/>
-      <c r="AD9" s="354"/>
-      <c r="AE9" s="354"/>
-      <c r="AF9" s="354"/>
-      <c r="AG9" s="354"/>
-      <c r="AH9" s="354"/>
+      <c r="U9" s="281"/>
+      <c r="V9" s="279"/>
+      <c r="W9" s="279"/>
+      <c r="X9" s="279"/>
+      <c r="Y9" s="279"/>
+      <c r="Z9" s="279"/>
+      <c r="AA9" s="279"/>
+      <c r="AB9" s="279"/>
+      <c r="AC9" s="279"/>
+      <c r="AD9" s="279"/>
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="279"/>
+      <c r="AG9" s="279"/>
+      <c r="AH9" s="279"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="30"/>
@@ -12009,20 +12010,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="273" t="s">
+      <c r="E10" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="212" t="s">
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="213"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="214"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="177"/>
       <c r="O10" s="115" t="s">
         <v>76</v>
       </c>
@@ -12038,23 +12039,23 @@
       <c r="S10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="268" t="s">
+      <c r="T10" s="275" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="269"/>
-      <c r="V10" s="212"/>
-      <c r="W10" s="213"/>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="213"/>
-      <c r="Z10" s="213"/>
-      <c r="AA10" s="213"/>
-      <c r="AB10" s="213"/>
-      <c r="AC10" s="213"/>
-      <c r="AD10" s="213"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="213"/>
-      <c r="AG10" s="213"/>
-      <c r="AH10" s="214"/>
+      <c r="U10" s="276"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="176"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="177"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="30"/>
@@ -12062,20 +12063,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="273" t="s">
+      <c r="E11" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="212" t="s">
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="214"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="177"/>
       <c r="O11" s="116" t="s">
         <v>77</v>
       </c>
@@ -12091,23 +12092,23 @@
       <c r="S11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="268" t="s">
+      <c r="T11" s="275" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="269"/>
-      <c r="V11" s="212"/>
-      <c r="W11" s="213"/>
-      <c r="X11" s="213"/>
-      <c r="Y11" s="213"/>
-      <c r="Z11" s="213"/>
-      <c r="AA11" s="213"/>
-      <c r="AB11" s="213"/>
-      <c r="AC11" s="213"/>
-      <c r="AD11" s="213"/>
-      <c r="AE11" s="213"/>
-      <c r="AF11" s="213"/>
-      <c r="AG11" s="213"/>
-      <c r="AH11" s="214"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="176"/>
+      <c r="AE11" s="176"/>
+      <c r="AF11" s="176"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="177"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="30"/>
@@ -12115,20 +12116,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="273" t="s">
+      <c r="E12" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
-      <c r="K12" s="212" t="s">
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213"/>
-      <c r="N12" s="214"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="177"/>
       <c r="O12" s="116" t="s">
         <v>77</v>
       </c>
@@ -12144,23 +12145,23 @@
       <c r="S12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="268" t="s">
+      <c r="T12" s="275" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="269"/>
-      <c r="V12" s="212"/>
-      <c r="W12" s="213"/>
-      <c r="X12" s="213"/>
-      <c r="Y12" s="213"/>
-      <c r="Z12" s="213"/>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="213"/>
-      <c r="AC12" s="213"/>
-      <c r="AD12" s="213"/>
-      <c r="AE12" s="213"/>
-      <c r="AF12" s="213"/>
-      <c r="AG12" s="213"/>
-      <c r="AH12" s="214"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="176"/>
+      <c r="AA12" s="176"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="176"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="177"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
@@ -12310,40 +12311,40 @@
       <c r="D17" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="360" t="s">
+      <c r="E17" s="286" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="361"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="270" t="s">
+      <c r="F17" s="287"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="349" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="271"/>
-      <c r="J17" s="271"/>
-      <c r="K17" s="271"/>
-      <c r="L17" s="271"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="271"/>
-      <c r="O17" s="271"/>
-      <c r="P17" s="271"/>
-      <c r="Q17" s="271"/>
-      <c r="R17" s="271"/>
-      <c r="S17" s="271"/>
-      <c r="T17" s="271"/>
-      <c r="U17" s="271"/>
-      <c r="V17" s="271"/>
-      <c r="W17" s="271"/>
-      <c r="X17" s="271"/>
-      <c r="Y17" s="271"/>
-      <c r="Z17" s="271"/>
-      <c r="AA17" s="271"/>
-      <c r="AB17" s="271"/>
-      <c r="AC17" s="271"/>
-      <c r="AD17" s="271"/>
-      <c r="AE17" s="271"/>
-      <c r="AF17" s="271"/>
-      <c r="AG17" s="271"/>
-      <c r="AH17" s="272"/>
+      <c r="I17" s="350"/>
+      <c r="J17" s="350"/>
+      <c r="K17" s="350"/>
+      <c r="L17" s="350"/>
+      <c r="M17" s="350"/>
+      <c r="N17" s="350"/>
+      <c r="O17" s="350"/>
+      <c r="P17" s="350"/>
+      <c r="Q17" s="350"/>
+      <c r="R17" s="350"/>
+      <c r="S17" s="350"/>
+      <c r="T17" s="350"/>
+      <c r="U17" s="350"/>
+      <c r="V17" s="350"/>
+      <c r="W17" s="350"/>
+      <c r="X17" s="350"/>
+      <c r="Y17" s="350"/>
+      <c r="Z17" s="350"/>
+      <c r="AA17" s="350"/>
+      <c r="AB17" s="350"/>
+      <c r="AC17" s="350"/>
+      <c r="AD17" s="350"/>
+      <c r="AE17" s="350"/>
+      <c r="AF17" s="350"/>
+      <c r="AG17" s="350"/>
+      <c r="AH17" s="351"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
@@ -12351,40 +12352,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="273" t="s">
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="213"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="273" t="s">
+      <c r="F18" s="176"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="213"/>
-      <c r="P18" s="213"/>
-      <c r="Q18" s="213"/>
-      <c r="R18" s="213"/>
-      <c r="S18" s="213"/>
-      <c r="T18" s="213"/>
-      <c r="U18" s="213"/>
-      <c r="V18" s="213"/>
-      <c r="W18" s="213"/>
-      <c r="X18" s="213"/>
-      <c r="Y18" s="213"/>
-      <c r="Z18" s="213"/>
-      <c r="AA18" s="213"/>
-      <c r="AB18" s="213"/>
-      <c r="AC18" s="213"/>
-      <c r="AD18" s="213"/>
-      <c r="AE18" s="213"/>
-      <c r="AF18" s="213"/>
-      <c r="AG18" s="213"/>
-      <c r="AH18" s="214"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="176"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="177"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12392,40 +12393,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="273" t="s">
+      <c r="E19" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="213"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="273" t="s">
+      <c r="F19" s="176"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="213"/>
-      <c r="S19" s="213"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="213"/>
-      <c r="V19" s="213"/>
-      <c r="W19" s="213"/>
-      <c r="X19" s="213"/>
-      <c r="Y19" s="213"/>
-      <c r="Z19" s="213"/>
-      <c r="AA19" s="213"/>
-      <c r="AB19" s="213"/>
-      <c r="AC19" s="213"/>
-      <c r="AD19" s="213"/>
-      <c r="AE19" s="213"/>
-      <c r="AF19" s="213"/>
-      <c r="AG19" s="213"/>
-      <c r="AH19" s="214"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="176"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
+      <c r="AD19" s="176"/>
+      <c r="AE19" s="176"/>
+      <c r="AF19" s="176"/>
+      <c r="AG19" s="176"/>
+      <c r="AH19" s="177"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12433,40 +12434,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="273" t="s">
+      <c r="E20" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="213"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="273" t="s">
+      <c r="F20" s="176"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
-      <c r="P20" s="213"/>
-      <c r="Q20" s="213"/>
-      <c r="R20" s="213"/>
-      <c r="S20" s="213"/>
-      <c r="T20" s="213"/>
-      <c r="U20" s="213"/>
-      <c r="V20" s="213"/>
-      <c r="W20" s="213"/>
-      <c r="X20" s="213"/>
-      <c r="Y20" s="213"/>
-      <c r="Z20" s="213"/>
-      <c r="AA20" s="213"/>
-      <c r="AB20" s="213"/>
-      <c r="AC20" s="213"/>
-      <c r="AD20" s="213"/>
-      <c r="AE20" s="213"/>
-      <c r="AF20" s="213"/>
-      <c r="AG20" s="213"/>
-      <c r="AH20" s="214"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="176"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="176"/>
+      <c r="Y20" s="176"/>
+      <c r="Z20" s="176"/>
+      <c r="AA20" s="176"/>
+      <c r="AB20" s="176"/>
+      <c r="AC20" s="176"/>
+      <c r="AD20" s="176"/>
+      <c r="AE20" s="176"/>
+      <c r="AF20" s="176"/>
+      <c r="AG20" s="176"/>
+      <c r="AH20" s="177"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B21" s="87"/>
@@ -12651,10 +12652,10 @@
       <c r="B26" s="87"/>
       <c r="C26" s="150"/>
       <c r="E26" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="152" t="s">
         <v>127</v>
-      </c>
-      <c r="F26" s="152" t="s">
-        <v>128</v>
       </c>
       <c r="G26" s="153"/>
       <c r="H26" s="153"/>
@@ -12662,7 +12663,7 @@
       <c r="J26" s="153"/>
       <c r="K26" s="154"/>
       <c r="L26" s="152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M26" s="153"/>
       <c r="N26" s="153"/>
@@ -12674,10 +12675,10 @@
       <c r="T26" s="153"/>
       <c r="U26" s="154"/>
       <c r="V26" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="W26" s="152" t="s">
         <v>130</v>
-      </c>
-      <c r="W26" s="152" t="s">
-        <v>131</v>
       </c>
       <c r="X26" s="153"/>
       <c r="Y26" s="153"/>
@@ -12698,7 +12699,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="158" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="159"/>
       <c r="H27" s="159"/>
@@ -12706,7 +12707,7 @@
       <c r="J27" s="159"/>
       <c r="K27" s="160"/>
       <c r="L27" s="158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M27" s="159"/>
       <c r="N27" s="159"/>
@@ -12718,10 +12719,10 @@
       <c r="T27" s="159"/>
       <c r="U27" s="160"/>
       <c r="V27" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="W27" s="161" t="s">
         <v>132</v>
-      </c>
-      <c r="W27" s="161" t="s">
-        <v>133</v>
       </c>
       <c r="X27" s="162"/>
       <c r="Y27" s="162"/>
@@ -12897,43 +12898,43 @@
       <c r="E33" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="298" t="s">
+      <c r="F33" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
-      <c r="J33" s="299"/>
-      <c r="K33" s="300"/>
-      <c r="L33" s="301" t="s">
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="310"/>
+      <c r="L33" s="311" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="299"/>
-      <c r="N33" s="299"/>
-      <c r="O33" s="299"/>
-      <c r="P33" s="299"/>
-      <c r="Q33" s="299"/>
-      <c r="R33" s="299"/>
-      <c r="S33" s="299"/>
-      <c r="T33" s="299"/>
-      <c r="U33" s="300"/>
-      <c r="V33" s="302" t="s">
+      <c r="M33" s="309"/>
+      <c r="N33" s="309"/>
+      <c r="O33" s="309"/>
+      <c r="P33" s="309"/>
+      <c r="Q33" s="309"/>
+      <c r="R33" s="309"/>
+      <c r="S33" s="309"/>
+      <c r="T33" s="309"/>
+      <c r="U33" s="310"/>
+      <c r="V33" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="303"/>
-      <c r="X33" s="304"/>
-      <c r="Y33" s="302" t="s">
+      <c r="W33" s="313"/>
+      <c r="X33" s="314"/>
+      <c r="Y33" s="312" t="s">
         <v>93</v>
       </c>
-      <c r="Z33" s="303"/>
-      <c r="AA33" s="303"/>
-      <c r="AB33" s="304"/>
-      <c r="AC33" s="305" t="s">
+      <c r="Z33" s="313"/>
+      <c r="AA33" s="313"/>
+      <c r="AB33" s="314"/>
+      <c r="AC33" s="315" t="s">
         <v>94</v>
       </c>
-      <c r="AD33" s="306"/>
-      <c r="AE33" s="306"/>
-      <c r="AF33" s="307"/>
+      <c r="AD33" s="316"/>
+      <c r="AE33" s="316"/>
+      <c r="AF33" s="317"/>
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
@@ -12946,43 +12947,43 @@
       <c r="E34" s="129">
         <v>1</v>
       </c>
-      <c r="F34" s="332" t="s">
+      <c r="F34" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="312"/>
-      <c r="H34" s="312"/>
-      <c r="I34" s="312"/>
-      <c r="J34" s="312"/>
-      <c r="K34" s="313"/>
-      <c r="L34" s="311" t="s">
+      <c r="G34" s="322"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="322"/>
+      <c r="J34" s="322"/>
+      <c r="K34" s="323"/>
+      <c r="L34" s="321" t="s">
         <v>96</v>
       </c>
-      <c r="M34" s="312"/>
-      <c r="N34" s="312"/>
-      <c r="O34" s="312"/>
-      <c r="P34" s="312"/>
-      <c r="Q34" s="312"/>
-      <c r="R34" s="312"/>
-      <c r="S34" s="312"/>
-      <c r="T34" s="312"/>
-      <c r="U34" s="313"/>
-      <c r="V34" s="333" t="s">
+      <c r="M34" s="322"/>
+      <c r="N34" s="322"/>
+      <c r="O34" s="322"/>
+      <c r="P34" s="322"/>
+      <c r="Q34" s="322"/>
+      <c r="R34" s="322"/>
+      <c r="S34" s="322"/>
+      <c r="T34" s="322"/>
+      <c r="U34" s="323"/>
+      <c r="V34" s="343" t="s">
         <v>97</v>
       </c>
-      <c r="W34" s="334"/>
-      <c r="X34" s="335"/>
-      <c r="Y34" s="308" t="s">
+      <c r="W34" s="344"/>
+      <c r="X34" s="345"/>
+      <c r="Y34" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="Z34" s="309"/>
-      <c r="AA34" s="309"/>
-      <c r="AB34" s="310"/>
-      <c r="AC34" s="311" t="s">
+      <c r="Z34" s="319"/>
+      <c r="AA34" s="319"/>
+      <c r="AB34" s="320"/>
+      <c r="AC34" s="321" t="s">
         <v>120</v>
       </c>
-      <c r="AD34" s="312"/>
-      <c r="AE34" s="312"/>
-      <c r="AF34" s="313"/>
+      <c r="AD34" s="322"/>
+      <c r="AE34" s="322"/>
+      <c r="AF34" s="323"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
@@ -13137,30 +13138,30 @@
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="284" t="s">
+      <c r="E39" s="362" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="285"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="285"/>
-      <c r="I39" s="285"/>
-      <c r="J39" s="285"/>
-      <c r="K39" s="285"/>
-      <c r="L39" s="285"/>
-      <c r="M39" s="285"/>
-      <c r="N39" s="286"/>
-      <c r="O39" s="314" t="s">
+      <c r="F39" s="363"/>
+      <c r="G39" s="363"/>
+      <c r="H39" s="363"/>
+      <c r="I39" s="363"/>
+      <c r="J39" s="363"/>
+      <c r="K39" s="363"/>
+      <c r="L39" s="363"/>
+      <c r="M39" s="363"/>
+      <c r="N39" s="364"/>
+      <c r="O39" s="324" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="315"/>
-      <c r="Q39" s="315"/>
-      <c r="R39" s="315"/>
-      <c r="S39" s="315"/>
-      <c r="T39" s="315"/>
-      <c r="U39" s="315"/>
-      <c r="V39" s="315"/>
-      <c r="W39" s="315"/>
-      <c r="X39" s="316"/>
+      <c r="P39" s="325"/>
+      <c r="Q39" s="325"/>
+      <c r="R39" s="325"/>
+      <c r="S39" s="325"/>
+      <c r="T39" s="325"/>
+      <c r="U39" s="325"/>
+      <c r="V39" s="325"/>
+      <c r="W39" s="325"/>
+      <c r="X39" s="326"/>
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
       <c r="AA39" s="48"/>
@@ -13178,30 +13179,30 @@
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="317" t="s">
+      <c r="E40" s="327" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="318"/>
-      <c r="G40" s="318"/>
-      <c r="H40" s="318"/>
-      <c r="I40" s="318"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
-      <c r="L40" s="318"/>
-      <c r="M40" s="318"/>
-      <c r="N40" s="319"/>
-      <c r="O40" s="326" t="s">
+      <c r="F40" s="328"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
+      <c r="L40" s="328"/>
+      <c r="M40" s="328"/>
+      <c r="N40" s="329"/>
+      <c r="O40" s="336" t="s">
         <v>85</v>
       </c>
-      <c r="P40" s="327"/>
-      <c r="Q40" s="327"/>
-      <c r="R40" s="327"/>
-      <c r="S40" s="327"/>
-      <c r="T40" s="327"/>
-      <c r="U40" s="327"/>
-      <c r="V40" s="327"/>
-      <c r="W40" s="327"/>
-      <c r="X40" s="328"/>
+      <c r="P40" s="337"/>
+      <c r="Q40" s="337"/>
+      <c r="R40" s="337"/>
+      <c r="S40" s="337"/>
+      <c r="T40" s="337"/>
+      <c r="U40" s="337"/>
+      <c r="V40" s="337"/>
+      <c r="W40" s="337"/>
+      <c r="X40" s="338"/>
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
@@ -13219,28 +13220,28 @@
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
-      <c r="E41" s="320"/>
-      <c r="F41" s="321"/>
-      <c r="G41" s="321"/>
-      <c r="H41" s="321"/>
-      <c r="I41" s="321"/>
-      <c r="J41" s="321"/>
-      <c r="K41" s="321"/>
-      <c r="L41" s="321"/>
-      <c r="M41" s="321"/>
-      <c r="N41" s="322"/>
-      <c r="O41" s="326" t="s">
+      <c r="E41" s="330"/>
+      <c r="F41" s="331"/>
+      <c r="G41" s="331"/>
+      <c r="H41" s="331"/>
+      <c r="I41" s="331"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="331"/>
+      <c r="L41" s="331"/>
+      <c r="M41" s="331"/>
+      <c r="N41" s="332"/>
+      <c r="O41" s="336" t="s">
         <v>86</v>
       </c>
-      <c r="P41" s="327"/>
-      <c r="Q41" s="327"/>
-      <c r="R41" s="327"/>
-      <c r="S41" s="327"/>
-      <c r="T41" s="327"/>
-      <c r="U41" s="327"/>
-      <c r="V41" s="327"/>
-      <c r="W41" s="327"/>
-      <c r="X41" s="328"/>
+      <c r="P41" s="337"/>
+      <c r="Q41" s="337"/>
+      <c r="R41" s="337"/>
+      <c r="S41" s="337"/>
+      <c r="T41" s="337"/>
+      <c r="U41" s="337"/>
+      <c r="V41" s="337"/>
+      <c r="W41" s="337"/>
+      <c r="X41" s="338"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
@@ -13258,28 +13259,28 @@
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="323"/>
-      <c r="F42" s="324"/>
-      <c r="G42" s="324"/>
-      <c r="H42" s="324"/>
-      <c r="I42" s="324"/>
-      <c r="J42" s="324"/>
-      <c r="K42" s="324"/>
-      <c r="L42" s="324"/>
-      <c r="M42" s="324"/>
-      <c r="N42" s="325"/>
-      <c r="O42" s="329" t="s">
+      <c r="E42" s="333"/>
+      <c r="F42" s="334"/>
+      <c r="G42" s="334"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="334"/>
+      <c r="L42" s="334"/>
+      <c r="M42" s="334"/>
+      <c r="N42" s="335"/>
+      <c r="O42" s="339" t="s">
         <v>87</v>
       </c>
-      <c r="P42" s="330"/>
-      <c r="Q42" s="330"/>
-      <c r="R42" s="330"/>
-      <c r="S42" s="330"/>
-      <c r="T42" s="330"/>
-      <c r="U42" s="330"/>
-      <c r="V42" s="330"/>
-      <c r="W42" s="330"/>
-      <c r="X42" s="331"/>
+      <c r="P42" s="340"/>
+      <c r="Q42" s="340"/>
+      <c r="R42" s="340"/>
+      <c r="S42" s="340"/>
+      <c r="T42" s="340"/>
+      <c r="U42" s="340"/>
+      <c r="V42" s="340"/>
+      <c r="W42" s="340"/>
+      <c r="X42" s="341"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
@@ -13297,28 +13298,28 @@
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
-      <c r="E43" s="281" t="s">
+      <c r="E43" s="359" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="282"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
-      <c r="K43" s="282"/>
-      <c r="L43" s="282"/>
-      <c r="M43" s="282"/>
-      <c r="N43" s="282"/>
-      <c r="O43" s="282"/>
-      <c r="P43" s="282"/>
-      <c r="Q43" s="282"/>
-      <c r="R43" s="282"/>
-      <c r="S43" s="282"/>
-      <c r="T43" s="282"/>
-      <c r="U43" s="282"/>
-      <c r="V43" s="282"/>
-      <c r="W43" s="282"/>
-      <c r="X43" s="283"/>
+      <c r="F43" s="360"/>
+      <c r="G43" s="360"/>
+      <c r="H43" s="360"/>
+      <c r="I43" s="360"/>
+      <c r="J43" s="360"/>
+      <c r="K43" s="360"/>
+      <c r="L43" s="360"/>
+      <c r="M43" s="360"/>
+      <c r="N43" s="360"/>
+      <c r="O43" s="360"/>
+      <c r="P43" s="360"/>
+      <c r="Q43" s="360"/>
+      <c r="R43" s="360"/>
+      <c r="S43" s="360"/>
+      <c r="T43" s="360"/>
+      <c r="U43" s="360"/>
+      <c r="V43" s="360"/>
+      <c r="W43" s="360"/>
+      <c r="X43" s="361"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
@@ -13491,7 +13492,7 @@
       <c r="C48" s="58"/>
       <c r="D48"/>
       <c r="E48" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
@@ -13913,44 +13914,44 @@
     <row r="60" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
-      <c r="E60" s="336" t="s">
+      <c r="E60" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="336"/>
-      <c r="G60" s="349" t="s">
+      <c r="F60" s="285"/>
+      <c r="G60" s="272" t="s">
         <v>125</v>
       </c>
-      <c r="H60" s="350"/>
-      <c r="I60" s="350"/>
-      <c r="J60" s="350"/>
-      <c r="K60" s="350"/>
-      <c r="L60" s="351"/>
-      <c r="M60" s="336" t="s">
+      <c r="H60" s="273"/>
+      <c r="I60" s="273"/>
+      <c r="J60" s="273"/>
+      <c r="K60" s="273"/>
+      <c r="L60" s="274"/>
+      <c r="M60" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="N60" s="336"/>
-      <c r="O60" s="349" t="s">
+      <c r="N60" s="285"/>
+      <c r="O60" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="P60" s="350"/>
-      <c r="Q60" s="350"/>
-      <c r="R60" s="350"/>
-      <c r="S60" s="350"/>
-      <c r="T60" s="350"/>
-      <c r="U60" s="350"/>
-      <c r="V60" s="350"/>
-      <c r="W60" s="350"/>
-      <c r="X60" s="350"/>
-      <c r="Y60" s="350"/>
-      <c r="Z60" s="350"/>
-      <c r="AA60" s="350"/>
-      <c r="AB60" s="350"/>
-      <c r="AC60" s="350"/>
-      <c r="AD60" s="350"/>
-      <c r="AE60" s="350"/>
-      <c r="AF60" s="350"/>
-      <c r="AG60" s="350"/>
-      <c r="AH60" s="351"/>
+      <c r="P60" s="273"/>
+      <c r="Q60" s="273"/>
+      <c r="R60" s="273"/>
+      <c r="S60" s="273"/>
+      <c r="T60" s="273"/>
+      <c r="U60" s="273"/>
+      <c r="V60" s="273"/>
+      <c r="W60" s="273"/>
+      <c r="X60" s="273"/>
+      <c r="Y60" s="273"/>
+      <c r="Z60" s="273"/>
+      <c r="AA60" s="273"/>
+      <c r="AB60" s="273"/>
+      <c r="AC60" s="273"/>
+      <c r="AD60" s="273"/>
+      <c r="AE60" s="273"/>
+      <c r="AF60" s="273"/>
+      <c r="AG60" s="273"/>
+      <c r="AH60" s="274"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C61" s="30"/>
@@ -14085,86 +14086,86 @@
     <row r="65" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
-      <c r="E65" s="337" t="s">
+      <c r="E65" s="346" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="292" t="s">
+      <c r="F65" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="293"/>
-      <c r="H65" s="293"/>
-      <c r="I65" s="294"/>
-      <c r="J65" s="292" t="s">
+      <c r="G65" s="303"/>
+      <c r="H65" s="303"/>
+      <c r="I65" s="304"/>
+      <c r="J65" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="K65" s="293"/>
-      <c r="L65" s="293"/>
-      <c r="M65" s="294"/>
-      <c r="N65" s="339" t="s">
+      <c r="K65" s="303"/>
+      <c r="L65" s="303"/>
+      <c r="M65" s="304"/>
+      <c r="N65" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="O65" s="339"/>
-      <c r="P65" s="339"/>
-      <c r="Q65" s="339"/>
-      <c r="R65" s="339"/>
-      <c r="S65" s="339"/>
-      <c r="T65" s="339"/>
-      <c r="U65" s="339"/>
-      <c r="V65" s="339"/>
-      <c r="W65" s="292" t="s">
+      <c r="O65" s="289"/>
+      <c r="P65" s="289"/>
+      <c r="Q65" s="289"/>
+      <c r="R65" s="289"/>
+      <c r="S65" s="289"/>
+      <c r="T65" s="289"/>
+      <c r="U65" s="289"/>
+      <c r="V65" s="289"/>
+      <c r="W65" s="302" t="s">
         <v>33</v>
       </c>
-      <c r="X65" s="293"/>
-      <c r="Y65" s="293"/>
-      <c r="Z65" s="293"/>
-      <c r="AA65" s="293"/>
-      <c r="AB65" s="293"/>
-      <c r="AC65" s="294"/>
-      <c r="AD65" s="292" t="s">
+      <c r="X65" s="303"/>
+      <c r="Y65" s="303"/>
+      <c r="Z65" s="303"/>
+      <c r="AA65" s="303"/>
+      <c r="AB65" s="303"/>
+      <c r="AC65" s="304"/>
+      <c r="AD65" s="302" t="s">
         <v>34</v>
       </c>
-      <c r="AE65" s="293"/>
-      <c r="AF65" s="293"/>
-      <c r="AG65" s="293"/>
-      <c r="AH65" s="294"/>
+      <c r="AE65" s="303"/>
+      <c r="AF65" s="303"/>
+      <c r="AG65" s="303"/>
+      <c r="AH65" s="304"/>
     </row>
     <row r="66" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C66" s="30"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="338"/>
-      <c r="F66" s="295"/>
-      <c r="G66" s="296"/>
-      <c r="H66" s="296"/>
-      <c r="I66" s="297"/>
-      <c r="J66" s="295"/>
-      <c r="K66" s="296"/>
-      <c r="L66" s="296"/>
-      <c r="M66" s="297"/>
-      <c r="N66" s="339" t="s">
+      <c r="E66" s="347"/>
+      <c r="F66" s="305"/>
+      <c r="G66" s="306"/>
+      <c r="H66" s="306"/>
+      <c r="I66" s="307"/>
+      <c r="J66" s="305"/>
+      <c r="K66" s="306"/>
+      <c r="L66" s="306"/>
+      <c r="M66" s="307"/>
+      <c r="N66" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="339"/>
-      <c r="P66" s="339"/>
-      <c r="Q66" s="339"/>
-      <c r="R66" s="339"/>
-      <c r="S66" s="267" t="s">
+      <c r="O66" s="289"/>
+      <c r="P66" s="289"/>
+      <c r="Q66" s="289"/>
+      <c r="R66" s="289"/>
+      <c r="S66" s="348" t="s">
         <v>29</v>
       </c>
-      <c r="T66" s="267"/>
-      <c r="U66" s="267"/>
-      <c r="V66" s="267"/>
-      <c r="W66" s="295"/>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="296"/>
-      <c r="Z66" s="296"/>
-      <c r="AA66" s="296"/>
-      <c r="AB66" s="296"/>
-      <c r="AC66" s="297"/>
-      <c r="AD66" s="295"/>
-      <c r="AE66" s="296"/>
-      <c r="AF66" s="296"/>
-      <c r="AG66" s="296"/>
-      <c r="AH66" s="297"/>
+      <c r="T66" s="348"/>
+      <c r="U66" s="348"/>
+      <c r="V66" s="348"/>
+      <c r="W66" s="305"/>
+      <c r="X66" s="306"/>
+      <c r="Y66" s="306"/>
+      <c r="Z66" s="306"/>
+      <c r="AA66" s="306"/>
+      <c r="AB66" s="306"/>
+      <c r="AC66" s="307"/>
+      <c r="AD66" s="305"/>
+      <c r="AE66" s="306"/>
+      <c r="AF66" s="306"/>
+      <c r="AG66" s="306"/>
+      <c r="AH66" s="307"/>
     </row>
     <row r="67" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="30"/>
@@ -14172,43 +14173,43 @@
       <c r="E67" s="41">
         <v>1</v>
       </c>
-      <c r="F67" s="287" t="s">
-        <v>135</v>
-      </c>
-      <c r="G67" s="290"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="291"/>
-      <c r="J67" s="287" t="s">
+      <c r="F67" s="299" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="365"/>
+      <c r="H67" s="365"/>
+      <c r="I67" s="366"/>
+      <c r="J67" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="K67" s="288"/>
-      <c r="L67" s="288"/>
-      <c r="M67" s="289"/>
-      <c r="N67" s="274" t="s">
+      <c r="K67" s="300"/>
+      <c r="L67" s="300"/>
+      <c r="M67" s="301"/>
+      <c r="N67" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="O67" s="275"/>
-      <c r="P67" s="275"/>
-      <c r="Q67" s="275"/>
-      <c r="R67" s="275"/>
-      <c r="S67" s="276" t="s">
+      <c r="O67" s="353"/>
+      <c r="P67" s="353"/>
+      <c r="Q67" s="353"/>
+      <c r="R67" s="353"/>
+      <c r="S67" s="354" t="s">
         <v>85</v>
       </c>
-      <c r="T67" s="277"/>
-      <c r="U67" s="277"/>
-      <c r="V67" s="277"/>
-      <c r="W67" s="278"/>
-      <c r="X67" s="279"/>
-      <c r="Y67" s="279"/>
-      <c r="Z67" s="279"/>
-      <c r="AA67" s="279"/>
-      <c r="AB67" s="279"/>
-      <c r="AC67" s="280"/>
-      <c r="AD67" s="278"/>
-      <c r="AE67" s="279"/>
-      <c r="AF67" s="279"/>
-      <c r="AG67" s="279"/>
-      <c r="AH67" s="280"/>
+      <c r="T67" s="355"/>
+      <c r="U67" s="355"/>
+      <c r="V67" s="355"/>
+      <c r="W67" s="356"/>
+      <c r="X67" s="357"/>
+      <c r="Y67" s="357"/>
+      <c r="Z67" s="357"/>
+      <c r="AA67" s="357"/>
+      <c r="AB67" s="357"/>
+      <c r="AC67" s="358"/>
+      <c r="AD67" s="356"/>
+      <c r="AE67" s="357"/>
+      <c r="AF67" s="357"/>
+      <c r="AG67" s="357"/>
+      <c r="AH67" s="358"/>
     </row>
     <row r="68" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="30"/>
@@ -14216,43 +14217,43 @@
       <c r="E68" s="41">
         <v>2</v>
       </c>
-      <c r="F68" s="287" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" s="290"/>
-      <c r="H68" s="290"/>
-      <c r="I68" s="291"/>
-      <c r="J68" s="287" t="s">
+      <c r="F68" s="299" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="365"/>
+      <c r="H68" s="365"/>
+      <c r="I68" s="366"/>
+      <c r="J68" s="299" t="s">
         <v>82</v>
       </c>
-      <c r="K68" s="288"/>
-      <c r="L68" s="288"/>
-      <c r="M68" s="289"/>
-      <c r="N68" s="274" t="s">
+      <c r="K68" s="300"/>
+      <c r="L68" s="300"/>
+      <c r="M68" s="301"/>
+      <c r="N68" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="O68" s="275"/>
-      <c r="P68" s="275"/>
-      <c r="Q68" s="275"/>
-      <c r="R68" s="275"/>
-      <c r="S68" s="276" t="s">
+      <c r="O68" s="353"/>
+      <c r="P68" s="353"/>
+      <c r="Q68" s="353"/>
+      <c r="R68" s="353"/>
+      <c r="S68" s="354" t="s">
         <v>86</v>
       </c>
-      <c r="T68" s="277"/>
-      <c r="U68" s="277"/>
-      <c r="V68" s="277"/>
-      <c r="W68" s="278"/>
-      <c r="X68" s="279"/>
-      <c r="Y68" s="279"/>
-      <c r="Z68" s="279"/>
-      <c r="AA68" s="279"/>
-      <c r="AB68" s="279"/>
-      <c r="AC68" s="280"/>
-      <c r="AD68" s="278"/>
-      <c r="AE68" s="279"/>
-      <c r="AF68" s="279"/>
-      <c r="AG68" s="279"/>
-      <c r="AH68" s="280"/>
+      <c r="T68" s="355"/>
+      <c r="U68" s="355"/>
+      <c r="V68" s="355"/>
+      <c r="W68" s="356"/>
+      <c r="X68" s="357"/>
+      <c r="Y68" s="357"/>
+      <c r="Z68" s="357"/>
+      <c r="AA68" s="357"/>
+      <c r="AB68" s="357"/>
+      <c r="AC68" s="358"/>
+      <c r="AD68" s="356"/>
+      <c r="AE68" s="357"/>
+      <c r="AF68" s="357"/>
+      <c r="AG68" s="357"/>
+      <c r="AH68" s="358"/>
     </row>
     <row r="69" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="30"/>
@@ -14260,65 +14261,98 @@
       <c r="E69" s="41">
         <v>3</v>
       </c>
-      <c r="F69" s="287" t="s">
-        <v>137</v>
-      </c>
-      <c r="G69" s="290"/>
-      <c r="H69" s="290"/>
-      <c r="I69" s="291"/>
-      <c r="J69" s="287" t="s">
+      <c r="F69" s="299" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="365"/>
+      <c r="H69" s="365"/>
+      <c r="I69" s="366"/>
+      <c r="J69" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="K69" s="288"/>
-      <c r="L69" s="288"/>
-      <c r="M69" s="289"/>
-      <c r="N69" s="274" t="s">
+      <c r="K69" s="300"/>
+      <c r="L69" s="300"/>
+      <c r="M69" s="301"/>
+      <c r="N69" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="O69" s="275"/>
-      <c r="P69" s="275"/>
-      <c r="Q69" s="275"/>
-      <c r="R69" s="275"/>
-      <c r="S69" s="276" t="s">
+      <c r="O69" s="353"/>
+      <c r="P69" s="353"/>
+      <c r="Q69" s="353"/>
+      <c r="R69" s="353"/>
+      <c r="S69" s="354" t="s">
         <v>87</v>
       </c>
-      <c r="T69" s="277"/>
-      <c r="U69" s="277"/>
-      <c r="V69" s="277"/>
-      <c r="W69" s="278"/>
-      <c r="X69" s="279"/>
-      <c r="Y69" s="279"/>
-      <c r="Z69" s="279"/>
-      <c r="AA69" s="279"/>
-      <c r="AB69" s="279"/>
-      <c r="AC69" s="280"/>
-      <c r="AD69" s="278"/>
-      <c r="AE69" s="279"/>
-      <c r="AF69" s="279"/>
-      <c r="AG69" s="279"/>
-      <c r="AH69" s="280"/>
+      <c r="T69" s="355"/>
+      <c r="U69" s="355"/>
+      <c r="V69" s="355"/>
+      <c r="W69" s="356"/>
+      <c r="X69" s="357"/>
+      <c r="Y69" s="357"/>
+      <c r="Z69" s="357"/>
+      <c r="AA69" s="357"/>
+      <c r="AB69" s="357"/>
+      <c r="AC69" s="358"/>
+      <c r="AD69" s="356"/>
+      <c r="AE69" s="357"/>
+      <c r="AF69" s="357"/>
+      <c r="AG69" s="357"/>
+      <c r="AH69" s="358"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="O60:AH60"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E43:X43"/>
+    <mergeCell ref="E39:N39"/>
+    <mergeCell ref="W67:AC67"/>
+    <mergeCell ref="W68:AC68"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="N67:R67"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:AC69"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J65:M66"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="N65:V65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="W65:AC66"/>
+    <mergeCell ref="AD65:AH66"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O39:X39"/>
+    <mergeCell ref="E40:N42"/>
+    <mergeCell ref="O40:X40"/>
+    <mergeCell ref="O41:X41"/>
+    <mergeCell ref="O42:X42"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="N66:R66"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
@@ -14335,62 +14369,29 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="O60:AH60"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="G60:L60"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="W65:AC66"/>
-    <mergeCell ref="AD65:AH66"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O39:X39"/>
-    <mergeCell ref="E40:N42"/>
-    <mergeCell ref="O40:X40"/>
-    <mergeCell ref="O41:X41"/>
-    <mergeCell ref="O42:X42"/>
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="L34:U34"/>
     <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J65:M66"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="N65:V65"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W69:AC69"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="E43:X43"/>
-    <mergeCell ref="E39:N39"/>
-    <mergeCell ref="W67:AC67"/>
-    <mergeCell ref="W68:AC68"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="N68:R68"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="N67:R67"/>
-    <mergeCell ref="S67:V67"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
